--- a/German_Tales/Data/org/Firmenich_Inhalt_Bd2_Korrigiert.xlsx
+++ b/German_Tales/Data/org/Firmenich_Inhalt_Bd2_Korrigiert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannafischer/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/German_Tales/Data/org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42768D8E-AF97-6248-90AA-BF72C843D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{42768D8E-AF97-6248-90AA-BF72C843D8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7AF3A59-9C9D-4DD1-BAB9-2D07E8B53A9D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="500" windowWidth="36900" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -8799,7 +8799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8832,9 +8832,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8895,6 +8898,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9109,27 +9116,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M875"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B846" workbookViewId="0">
-      <selection activeCell="L641" sqref="L641:L645"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" customWidth="1"/>
-    <col min="2" max="2" width="54.5" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
-    <col min="6" max="6" width="92.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" customWidth="1"/>
+    <col min="2" max="2" width="62.125" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="9.375" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="6" max="6" width="92.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="17">
+    <row r="1" spans="1:12" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9167,7 +9174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2</v>
       </c>
@@ -9202,7 +9209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9237,7 +9244,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="34">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="A4">
         <v>2</v>
       </c>
@@ -9272,7 +9279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
@@ -9307,7 +9314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2</v>
       </c>
@@ -9342,7 +9349,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2</v>
       </c>
@@ -9377,7 +9384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>2</v>
       </c>
@@ -9412,7 +9419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2</v>
       </c>
@@ -9447,7 +9454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2</v>
       </c>
@@ -9482,7 +9489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>2</v>
       </c>
@@ -9517,7 +9524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>2</v>
       </c>
@@ -9552,7 +9559,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>2</v>
       </c>
@@ -9587,7 +9594,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>2</v>
       </c>
@@ -9622,7 +9629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>2</v>
       </c>
@@ -9657,7 +9664,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>2</v>
       </c>
@@ -9692,7 +9699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="17">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2</v>
       </c>
@@ -9727,7 +9734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="17">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>2</v>
       </c>
@@ -9753,7 +9760,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="17">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>2</v>
       </c>
@@ -9788,7 +9795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="17">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9823,7 +9830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="17">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>2</v>
       </c>
@@ -9858,7 +9865,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="17">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>2</v>
       </c>
@@ -9893,7 +9900,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="17">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>2</v>
       </c>
@@ -9928,7 +9935,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>2</v>
       </c>
@@ -9963,7 +9970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9998,7 +10005,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>2</v>
       </c>
@@ -10033,7 +10040,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="17">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>2</v>
       </c>
@@ -10068,7 +10075,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="17">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>2</v>
       </c>
@@ -10103,7 +10110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="17">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>2</v>
       </c>
@@ -10138,7 +10145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="17">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>2</v>
       </c>
@@ -10173,7 +10180,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="17">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>2</v>
       </c>
@@ -10208,7 +10215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="17">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>2</v>
       </c>
@@ -10243,7 +10250,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="17">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>2</v>
       </c>
@@ -10278,7 +10285,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="17">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>2</v>
       </c>
@@ -10313,7 +10320,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="17">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>2</v>
       </c>
@@ -10348,7 +10355,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="17">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>2</v>
       </c>
@@ -10383,7 +10390,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="17">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>2</v>
       </c>
@@ -10418,7 +10425,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="17">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>2</v>
       </c>
@@ -10453,7 +10460,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="17">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>2</v>
       </c>
@@ -10488,7 +10495,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="34">
+    <row r="40" spans="1:11" ht="31.5">
       <c r="A40">
         <v>2</v>
       </c>
@@ -10523,7 +10530,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="17">
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>2</v>
       </c>
@@ -10558,7 +10565,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="17">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>2</v>
       </c>
@@ -10593,7 +10600,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="17">
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>2</v>
       </c>
@@ -10628,7 +10635,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="17">
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>2</v>
       </c>
@@ -10663,7 +10670,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="17">
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>2</v>
       </c>
@@ -10698,7 +10705,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="17">
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>2</v>
       </c>
@@ -10733,7 +10740,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="17">
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>2</v>
       </c>
@@ -10768,7 +10775,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="17">
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>2</v>
       </c>
@@ -10803,7 +10810,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="17">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>2</v>
       </c>
@@ -10838,7 +10845,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="17">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>2</v>
       </c>
@@ -10873,7 +10880,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="17">
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>2</v>
       </c>
@@ -10908,7 +10915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="17">
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>2</v>
       </c>
@@ -10943,7 +10950,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="17">
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>2</v>
       </c>
@@ -10978,7 +10985,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17">
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>2</v>
       </c>
@@ -11013,7 +11020,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="17">
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>2</v>
       </c>
@@ -11048,7 +11055,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="17">
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>2</v>
       </c>
@@ -11083,7 +11090,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="17">
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>2</v>
       </c>
@@ -11118,7 +11125,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="17">
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>2</v>
       </c>
@@ -11153,7 +11160,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="17">
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>2</v>
       </c>
@@ -11188,7 +11195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="17">
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>2</v>
       </c>
@@ -11223,7 +11230,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="17">
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>2</v>
       </c>
@@ -11258,7 +11265,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="17">
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>2</v>
       </c>
@@ -11293,7 +11300,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="17">
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>2</v>
       </c>
@@ -11328,7 +11335,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="17">
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>2</v>
       </c>
@@ -11363,7 +11370,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17">
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>2</v>
       </c>
@@ -11398,7 +11405,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>2</v>
       </c>
@@ -11433,7 +11440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>2</v>
       </c>
@@ -11468,7 +11475,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>2</v>
       </c>
@@ -11503,7 +11510,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17">
+    <row r="69" spans="1:12">
       <c r="A69">
         <v>2</v>
       </c>
@@ -11538,7 +11545,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17">
+    <row r="70" spans="1:12">
       <c r="A70">
         <v>2</v>
       </c>
@@ -11574,7 +11581,7 @@
       </c>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="17">
+    <row r="71" spans="1:12">
       <c r="A71">
         <v>2</v>
       </c>
@@ -11610,7 +11617,7 @@
       </c>
       <c r="L71" s="8"/>
     </row>
-    <row r="72" spans="1:12" ht="17">
+    <row r="72" spans="1:12">
       <c r="A72">
         <v>2</v>
       </c>
@@ -11646,7 +11653,7 @@
       </c>
       <c r="L72" s="8"/>
     </row>
-    <row r="73" spans="1:12" ht="17">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>2</v>
       </c>
@@ -11682,7 +11689,7 @@
       </c>
       <c r="L73" s="8"/>
     </row>
-    <row r="74" spans="1:12" ht="17">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>2</v>
       </c>
@@ -11717,7 +11724,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>2</v>
       </c>
@@ -11752,7 +11759,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>2</v>
       </c>
@@ -11787,7 +11794,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>2</v>
       </c>
@@ -11822,7 +11829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>2</v>
       </c>
@@ -11857,7 +11864,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>2</v>
       </c>
@@ -11892,7 +11899,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>2</v>
       </c>
@@ -11927,7 +11934,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17">
+    <row r="81" spans="1:12">
       <c r="A81">
         <v>2</v>
       </c>
@@ -11962,7 +11969,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17">
+    <row r="82" spans="1:12">
       <c r="A82">
         <v>2</v>
       </c>
@@ -11997,7 +12004,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17">
+    <row r="83" spans="1:12">
       <c r="A83">
         <v>2</v>
       </c>
@@ -12035,7 +12042,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17">
+    <row r="84" spans="1:12">
       <c r="A84">
         <v>2</v>
       </c>
@@ -12070,7 +12077,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17">
+    <row r="85" spans="1:12">
       <c r="A85">
         <v>2</v>
       </c>
@@ -12105,7 +12112,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17">
+    <row r="86" spans="1:12">
       <c r="A86">
         <v>2</v>
       </c>
@@ -12140,7 +12147,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17">
+    <row r="87" spans="1:12">
       <c r="A87">
         <v>2</v>
       </c>
@@ -12175,7 +12182,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="34">
+    <row r="88" spans="1:12" ht="31.5">
       <c r="A88">
         <v>2</v>
       </c>
@@ -12210,7 +12217,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17">
+    <row r="89" spans="1:12">
       <c r="A89">
         <v>2</v>
       </c>
@@ -12245,7 +12252,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17">
+    <row r="90" spans="1:12">
       <c r="A90">
         <v>2</v>
       </c>
@@ -12280,7 +12287,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17">
+    <row r="91" spans="1:12">
       <c r="A91">
         <v>2</v>
       </c>
@@ -12315,7 +12322,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17">
+    <row r="92" spans="1:12">
       <c r="A92">
         <v>2</v>
       </c>
@@ -12350,7 +12357,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17">
+    <row r="93" spans="1:12">
       <c r="A93">
         <v>2</v>
       </c>
@@ -12385,7 +12392,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17">
+    <row r="94" spans="1:12">
       <c r="A94">
         <v>2</v>
       </c>
@@ -12420,7 +12427,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="17">
+    <row r="95" spans="1:12">
       <c r="A95">
         <v>2</v>
       </c>
@@ -12455,7 +12462,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="17">
+    <row r="96" spans="1:12">
       <c r="A96">
         <v>2</v>
       </c>
@@ -12490,7 +12497,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="17">
+    <row r="97" spans="1:11">
       <c r="A97">
         <v>2</v>
       </c>
@@ -12525,7 +12532,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="17">
+    <row r="98" spans="1:11">
       <c r="A98">
         <v>2</v>
       </c>
@@ -12560,7 +12567,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="17">
+    <row r="99" spans="1:11">
       <c r="A99">
         <v>2</v>
       </c>
@@ -12595,7 +12602,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="17">
+    <row r="100" spans="1:11">
       <c r="A100">
         <v>2</v>
       </c>
@@ -12630,7 +12637,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="17">
+    <row r="101" spans="1:11">
       <c r="A101">
         <v>2</v>
       </c>
@@ -12656,7 +12663,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="17">
+    <row r="102" spans="1:11">
       <c r="A102">
         <v>2</v>
       </c>
@@ -12682,7 +12689,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17">
+    <row r="103" spans="1:11">
       <c r="A103">
         <v>2</v>
       </c>
@@ -12708,7 +12715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="17">
+    <row r="104" spans="1:11">
       <c r="A104">
         <v>2</v>
       </c>
@@ -12734,7 +12741,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="17">
+    <row r="105" spans="1:11">
       <c r="A105">
         <v>2</v>
       </c>
@@ -12760,7 +12767,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="17">
+    <row r="106" spans="1:11">
       <c r="A106">
         <v>2</v>
       </c>
@@ -12786,7 +12793,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="17">
+    <row r="107" spans="1:11">
       <c r="A107">
         <v>2</v>
       </c>
@@ -12812,7 +12819,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="17">
+    <row r="108" spans="1:11">
       <c r="A108">
         <v>2</v>
       </c>
@@ -12838,7 +12845,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="17">
+    <row r="109" spans="1:11">
       <c r="A109">
         <v>2</v>
       </c>
@@ -12873,7 +12880,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="17">
+    <row r="110" spans="1:11">
       <c r="A110">
         <v>2</v>
       </c>
@@ -12908,7 +12915,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="17">
+    <row r="111" spans="1:11">
       <c r="A111">
         <v>2</v>
       </c>
@@ -12943,7 +12950,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="17">
+    <row r="112" spans="1:11">
       <c r="A112">
         <v>2</v>
       </c>
@@ -12978,7 +12985,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="17">
+    <row r="113" spans="1:11">
       <c r="A113">
         <v>2</v>
       </c>
@@ -13013,7 +13020,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="17">
+    <row r="114" spans="1:11">
       <c r="A114">
         <v>2</v>
       </c>
@@ -13048,7 +13055,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="17">
+    <row r="115" spans="1:11">
       <c r="A115">
         <v>2</v>
       </c>
@@ -13083,7 +13090,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="17">
+    <row r="116" spans="1:11">
       <c r="A116">
         <v>2</v>
       </c>
@@ -13118,7 +13125,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="17">
+    <row r="117" spans="1:11">
       <c r="A117">
         <v>2</v>
       </c>
@@ -13153,7 +13160,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="17">
+    <row r="118" spans="1:11">
       <c r="A118">
         <v>2</v>
       </c>
@@ -13188,7 +13195,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="17">
+    <row r="119" spans="1:11">
       <c r="A119">
         <v>2</v>
       </c>
@@ -13223,7 +13230,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="17">
+    <row r="120" spans="1:11">
       <c r="A120">
         <v>2</v>
       </c>
@@ -13258,7 +13265,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="17">
+    <row r="121" spans="1:11">
       <c r="A121">
         <v>2</v>
       </c>
@@ -13293,7 +13300,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="17">
+    <row r="122" spans="1:11">
       <c r="A122">
         <v>2</v>
       </c>
@@ -13328,7 +13335,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="17">
+    <row r="123" spans="1:11">
       <c r="A123">
         <v>2</v>
       </c>
@@ -13363,7 +13370,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="17">
+    <row r="124" spans="1:11">
       <c r="A124">
         <v>2</v>
       </c>
@@ -13398,7 +13405,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="17">
+    <row r="125" spans="1:11">
       <c r="A125">
         <v>2</v>
       </c>
@@ -13433,7 +13440,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="17">
+    <row r="126" spans="1:11">
       <c r="A126">
         <v>2</v>
       </c>
@@ -13468,7 +13475,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="17">
+    <row r="127" spans="1:11">
       <c r="A127">
         <v>2</v>
       </c>
@@ -13503,7 +13510,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="17">
+    <row r="128" spans="1:11">
       <c r="A128">
         <v>2</v>
       </c>
@@ -13538,7 +13545,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="17">
+    <row r="129" spans="1:11">
       <c r="A129">
         <v>2</v>
       </c>
@@ -13573,7 +13580,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="17">
+    <row r="130" spans="1:11">
       <c r="A130">
         <v>2</v>
       </c>
@@ -13608,7 +13615,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="17">
+    <row r="131" spans="1:11">
       <c r="A131">
         <v>2</v>
       </c>
@@ -13643,7 +13650,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="17">
+    <row r="132" spans="1:11">
       <c r="A132">
         <v>2</v>
       </c>
@@ -13678,7 +13685,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="17">
+    <row r="133" spans="1:11">
       <c r="A133">
         <v>2</v>
       </c>
@@ -13713,7 +13720,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="17">
+    <row r="134" spans="1:11">
       <c r="A134">
         <v>2</v>
       </c>
@@ -13748,7 +13755,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="17">
+    <row r="135" spans="1:11">
       <c r="A135">
         <v>2</v>
       </c>
@@ -13783,7 +13790,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="17">
+    <row r="136" spans="1:11">
       <c r="A136">
         <v>2</v>
       </c>
@@ -13818,7 +13825,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="17">
+    <row r="137" spans="1:11">
       <c r="A137">
         <v>2</v>
       </c>
@@ -13853,7 +13860,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="17">
+    <row r="138" spans="1:11">
       <c r="A138">
         <v>2</v>
       </c>
@@ -13888,7 +13895,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="17">
+    <row r="139" spans="1:11">
       <c r="A139">
         <v>2</v>
       </c>
@@ -13923,7 +13930,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="17">
+    <row r="140" spans="1:11">
       <c r="A140">
         <v>2</v>
       </c>
@@ -13958,7 +13965,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="17">
+    <row r="141" spans="1:11">
       <c r="A141">
         <v>2</v>
       </c>
@@ -13993,7 +14000,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="17">
+    <row r="142" spans="1:11">
       <c r="A142">
         <v>2</v>
       </c>
@@ -14028,7 +14035,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="17">
+    <row r="143" spans="1:11">
       <c r="A143">
         <v>2</v>
       </c>
@@ -14063,7 +14070,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="17">
+    <row r="144" spans="1:11">
       <c r="A144">
         <v>2</v>
       </c>
@@ -14098,7 +14105,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="17">
+    <row r="145" spans="1:11">
       <c r="A145">
         <v>2</v>
       </c>
@@ -14133,7 +14140,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="17">
+    <row r="146" spans="1:11">
       <c r="A146">
         <v>2</v>
       </c>
@@ -14168,7 +14175,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="17">
+    <row r="147" spans="1:11">
       <c r="A147">
         <v>2</v>
       </c>
@@ -14203,7 +14210,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="17">
+    <row r="148" spans="1:11">
       <c r="A148">
         <v>2</v>
       </c>
@@ -14238,7 +14245,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="17">
+    <row r="149" spans="1:11">
       <c r="A149">
         <v>2</v>
       </c>
@@ -14273,7 +14280,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="17">
+    <row r="150" spans="1:11">
       <c r="A150">
         <v>2</v>
       </c>
@@ -14308,7 +14315,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="17">
+    <row r="151" spans="1:11">
       <c r="A151">
         <v>2</v>
       </c>
@@ -14343,7 +14350,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="17">
+    <row r="152" spans="1:11">
       <c r="A152">
         <v>2</v>
       </c>
@@ -14378,7 +14385,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="17">
+    <row r="153" spans="1:11">
       <c r="A153">
         <v>2</v>
       </c>
@@ -14413,7 +14420,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="17">
+    <row r="154" spans="1:11">
       <c r="A154">
         <v>2</v>
       </c>
@@ -14448,7 +14455,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="17">
+    <row r="155" spans="1:11">
       <c r="A155">
         <v>2</v>
       </c>
@@ -14483,7 +14490,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="17">
+    <row r="156" spans="1:11">
       <c r="A156">
         <v>2</v>
       </c>
@@ -14518,7 +14525,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="17">
+    <row r="157" spans="1:11">
       <c r="A157">
         <v>2</v>
       </c>
@@ -14553,7 +14560,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="17">
+    <row r="158" spans="1:11">
       <c r="A158">
         <v>2</v>
       </c>
@@ -14588,7 +14595,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="17">
+    <row r="159" spans="1:11">
       <c r="A159">
         <v>2</v>
       </c>
@@ -14623,7 +14630,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="17">
+    <row r="160" spans="1:11">
       <c r="A160">
         <v>2</v>
       </c>
@@ -14658,7 +14665,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="17">
+    <row r="161" spans="1:11">
       <c r="A161">
         <v>2</v>
       </c>
@@ -14693,7 +14700,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="17">
+    <row r="162" spans="1:11">
       <c r="A162">
         <v>2</v>
       </c>
@@ -14728,7 +14735,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="17">
+    <row r="163" spans="1:11">
       <c r="A163">
         <v>2</v>
       </c>
@@ -14763,7 +14770,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="17">
+    <row r="164" spans="1:11">
       <c r="A164">
         <v>2</v>
       </c>
@@ -14798,7 +14805,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="17">
+    <row r="165" spans="1:11">
       <c r="A165">
         <v>2</v>
       </c>
@@ -14833,7 +14840,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="17">
+    <row r="166" spans="1:11">
       <c r="A166">
         <v>2</v>
       </c>
@@ -14868,7 +14875,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="17">
+    <row r="167" spans="1:11">
       <c r="A167">
         <v>2</v>
       </c>
@@ -14903,7 +14910,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="17">
+    <row r="168" spans="1:11">
       <c r="A168">
         <v>2</v>
       </c>
@@ -14938,7 +14945,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="17">
+    <row r="169" spans="1:11">
       <c r="A169">
         <v>2</v>
       </c>
@@ -14973,7 +14980,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="17">
+    <row r="170" spans="1:11">
       <c r="A170">
         <v>2</v>
       </c>
@@ -15008,7 +15015,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="17">
+    <row r="171" spans="1:11">
       <c r="A171">
         <v>2</v>
       </c>
@@ -15043,7 +15050,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="17">
+    <row r="172" spans="1:11">
       <c r="A172">
         <v>2</v>
       </c>
@@ -15078,7 +15085,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="17">
+    <row r="173" spans="1:11">
       <c r="A173">
         <v>2</v>
       </c>
@@ -15113,7 +15120,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="17">
+    <row r="174" spans="1:11">
       <c r="A174">
         <v>2</v>
       </c>
@@ -15148,7 +15155,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="17">
+    <row r="175" spans="1:11">
       <c r="A175">
         <v>2</v>
       </c>
@@ -15183,7 +15190,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="17">
+    <row r="176" spans="1:11">
       <c r="A176">
         <v>2</v>
       </c>
@@ -15218,7 +15225,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="17">
+    <row r="177" spans="1:11">
       <c r="A177">
         <v>2</v>
       </c>
@@ -15253,7 +15260,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="17">
+    <row r="178" spans="1:11">
       <c r="A178">
         <v>2</v>
       </c>
@@ -15288,7 +15295,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="17">
+    <row r="179" spans="1:11">
       <c r="A179">
         <v>2</v>
       </c>
@@ -15323,7 +15330,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="17">
+    <row r="180" spans="1:11">
       <c r="A180">
         <v>2</v>
       </c>
@@ -15358,7 +15365,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="17">
+    <row r="181" spans="1:11">
       <c r="A181">
         <v>2</v>
       </c>
@@ -15393,7 +15400,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="34">
+    <row r="182" spans="1:11" ht="31.5">
       <c r="A182">
         <v>2</v>
       </c>
@@ -15428,7 +15435,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="17">
+    <row r="183" spans="1:11">
       <c r="A183">
         <v>2</v>
       </c>
@@ -15463,7 +15470,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="17">
+    <row r="184" spans="1:11">
       <c r="A184">
         <v>2</v>
       </c>
@@ -15498,7 +15505,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="17">
+    <row r="185" spans="1:11">
       <c r="A185">
         <v>2</v>
       </c>
@@ -15533,7 +15540,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="17">
+    <row r="186" spans="1:11">
       <c r="A186">
         <v>2</v>
       </c>
@@ -15568,7 +15575,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="17">
+    <row r="187" spans="1:11">
       <c r="A187">
         <v>2</v>
       </c>
@@ -15603,7 +15610,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="17">
+    <row r="188" spans="1:11">
       <c r="A188">
         <v>2</v>
       </c>
@@ -15638,7 +15645,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="17">
+    <row r="189" spans="1:11">
       <c r="A189">
         <v>2</v>
       </c>
@@ -15673,7 +15680,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="17">
+    <row r="190" spans="1:11">
       <c r="A190">
         <v>2</v>
       </c>
@@ -15708,7 +15715,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="17">
+    <row r="191" spans="1:11">
       <c r="A191">
         <v>2</v>
       </c>
@@ -15743,7 +15750,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="17">
+    <row r="192" spans="1:11">
       <c r="A192">
         <v>2</v>
       </c>
@@ -15778,7 +15785,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="17">
+    <row r="193" spans="1:11">
       <c r="A193">
         <v>2</v>
       </c>
@@ -15813,7 +15820,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="17">
+    <row r="194" spans="1:11">
       <c r="A194">
         <v>2</v>
       </c>
@@ -15848,7 +15855,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="17">
+    <row r="195" spans="1:11">
       <c r="A195">
         <v>2</v>
       </c>
@@ -15883,7 +15890,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="17">
+    <row r="196" spans="1:11">
       <c r="A196">
         <v>2</v>
       </c>
@@ -15918,7 +15925,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="17">
+    <row r="197" spans="1:11">
       <c r="A197">
         <v>2</v>
       </c>
@@ -15953,7 +15960,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="17">
+    <row r="198" spans="1:11">
       <c r="A198">
         <v>2</v>
       </c>
@@ -15988,7 +15995,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="17">
+    <row r="199" spans="1:11">
       <c r="A199">
         <v>2</v>
       </c>
@@ -16023,7 +16030,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="17">
+    <row r="200" spans="1:11">
       <c r="A200">
         <v>2</v>
       </c>
@@ -16058,7 +16065,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="17">
+    <row r="201" spans="1:11">
       <c r="A201">
         <v>2</v>
       </c>
@@ -16093,7 +16100,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="17">
+    <row r="202" spans="1:11">
       <c r="A202">
         <v>2</v>
       </c>
@@ -16128,7 +16135,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="17">
+    <row r="203" spans="1:11">
       <c r="A203">
         <v>2</v>
       </c>
@@ -16163,7 +16170,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="17">
+    <row r="204" spans="1:11">
       <c r="A204">
         <v>2</v>
       </c>
@@ -16198,7 +16205,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="17">
+    <row r="205" spans="1:11">
       <c r="A205">
         <v>2</v>
       </c>
@@ -16233,7 +16240,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="17">
+    <row r="206" spans="1:11">
       <c r="A206">
         <v>2</v>
       </c>
@@ -16268,7 +16275,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="17">
+    <row r="207" spans="1:11">
       <c r="A207">
         <v>2</v>
       </c>
@@ -16303,7 +16310,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="17">
+    <row r="208" spans="1:11">
       <c r="A208">
         <v>2</v>
       </c>
@@ -16338,7 +16345,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="17">
+    <row r="209" spans="1:12">
       <c r="A209">
         <v>2</v>
       </c>
@@ -16373,7 +16380,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="17">
+    <row r="210" spans="1:12">
       <c r="A210">
         <v>2</v>
       </c>
@@ -16408,7 +16415,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="17">
+    <row r="211" spans="1:12">
       <c r="A211">
         <v>2</v>
       </c>
@@ -16443,7 +16450,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="17">
+    <row r="212" spans="1:12">
       <c r="A212">
         <v>2</v>
       </c>
@@ -16478,7 +16485,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="17">
+    <row r="213" spans="1:12">
       <c r="A213">
         <v>2</v>
       </c>
@@ -16513,7 +16520,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="17">
+    <row r="214" spans="1:12">
       <c r="A214">
         <v>2</v>
       </c>
@@ -16548,7 +16555,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="17">
+    <row r="215" spans="1:12">
       <c r="A215">
         <v>2</v>
       </c>
@@ -16583,7 +16590,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="17">
+    <row r="216" spans="1:12">
       <c r="A216">
         <v>2</v>
       </c>
@@ -16618,7 +16625,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="17">
+    <row r="217" spans="1:12">
       <c r="A217">
         <v>2</v>
       </c>
@@ -16653,7 +16660,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="17">
+    <row r="218" spans="1:12">
       <c r="A218">
         <v>2</v>
       </c>
@@ -16688,7 +16695,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="17">
+    <row r="219" spans="1:12">
       <c r="A219">
         <v>2</v>
       </c>
@@ -16723,7 +16730,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="17">
+    <row r="220" spans="1:12">
       <c r="A220">
         <v>2</v>
       </c>
@@ -16758,7 +16765,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="17">
+    <row r="221" spans="1:12">
       <c r="A221">
         <v>2</v>
       </c>
@@ -16793,7 +16800,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="17">
+    <row r="222" spans="1:12">
       <c r="A222">
         <v>2</v>
       </c>
@@ -16828,7 +16835,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="17">
+    <row r="223" spans="1:12">
       <c r="A223">
         <v>2</v>
       </c>
@@ -16866,7 +16873,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="17">
+    <row r="224" spans="1:12">
       <c r="A224">
         <v>2</v>
       </c>
@@ -16901,7 +16908,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="34">
+    <row r="225" spans="1:11" ht="31.5">
       <c r="A225">
         <v>2</v>
       </c>
@@ -16936,7 +16943,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="17">
+    <row r="226" spans="1:11">
       <c r="A226">
         <v>2</v>
       </c>
@@ -16971,7 +16978,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="17">
+    <row r="227" spans="1:11">
       <c r="A227">
         <v>2</v>
       </c>
@@ -17006,7 +17013,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="17">
+    <row r="228" spans="1:11">
       <c r="A228">
         <v>2</v>
       </c>
@@ -17041,7 +17048,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="17">
+    <row r="229" spans="1:11">
       <c r="A229">
         <v>2</v>
       </c>
@@ -17076,7 +17083,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="17">
+    <row r="230" spans="1:11">
       <c r="A230">
         <v>2</v>
       </c>
@@ -17111,7 +17118,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="34">
+    <row r="231" spans="1:11" ht="31.5">
       <c r="A231">
         <v>2</v>
       </c>
@@ -17146,7 +17153,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="17">
+    <row r="232" spans="1:11">
       <c r="A232">
         <v>2</v>
       </c>
@@ -17181,7 +17188,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="17">
+    <row r="233" spans="1:11">
       <c r="A233">
         <v>2</v>
       </c>
@@ -17216,7 +17223,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="17">
+    <row r="234" spans="1:11">
       <c r="A234">
         <v>2</v>
       </c>
@@ -17251,7 +17258,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="17">
+    <row r="235" spans="1:11">
       <c r="A235">
         <v>2</v>
       </c>
@@ -17286,7 +17293,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="17">
+    <row r="236" spans="1:11">
       <c r="A236">
         <v>2</v>
       </c>
@@ -17321,7 +17328,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="17">
+    <row r="237" spans="1:11">
       <c r="A237">
         <v>2</v>
       </c>
@@ -17356,7 +17363,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="17">
+    <row r="238" spans="1:11">
       <c r="A238">
         <v>2</v>
       </c>
@@ -17391,7 +17398,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="17">
+    <row r="239" spans="1:11">
       <c r="A239">
         <v>2</v>
       </c>
@@ -17426,7 +17433,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="17">
+    <row r="240" spans="1:11">
       <c r="A240">
         <v>2</v>
       </c>
@@ -17461,7 +17468,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="17">
+    <row r="241" spans="1:11">
       <c r="A241">
         <v>2</v>
       </c>
@@ -17496,7 +17503,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="17">
+    <row r="242" spans="1:11">
       <c r="A242">
         <v>2</v>
       </c>
@@ -17531,7 +17538,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="17">
+    <row r="243" spans="1:11">
       <c r="A243">
         <v>2</v>
       </c>
@@ -17566,7 +17573,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="17">
+    <row r="244" spans="1:11">
       <c r="A244">
         <v>2</v>
       </c>
@@ -17601,7 +17608,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="17">
+    <row r="245" spans="1:11">
       <c r="A245">
         <v>2</v>
       </c>
@@ -17636,7 +17643,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="17">
+    <row r="246" spans="1:11">
       <c r="A246">
         <v>2</v>
       </c>
@@ -17671,7 +17678,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="17">
+    <row r="247" spans="1:11">
       <c r="A247">
         <v>2</v>
       </c>
@@ -17706,7 +17713,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="17">
+    <row r="248" spans="1:11">
       <c r="A248">
         <v>2</v>
       </c>
@@ -17741,7 +17748,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="17">
+    <row r="249" spans="1:11">
       <c r="A249">
         <v>2</v>
       </c>
@@ -17776,7 +17783,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="17">
+    <row r="250" spans="1:11">
       <c r="A250">
         <v>2</v>
       </c>
@@ -17811,7 +17818,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="17">
+    <row r="251" spans="1:11">
       <c r="A251">
         <v>2</v>
       </c>
@@ -17846,7 +17853,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="17">
+    <row r="252" spans="1:11">
       <c r="A252">
         <v>2</v>
       </c>
@@ -17881,7 +17888,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="17">
+    <row r="253" spans="1:11">
       <c r="A253">
         <v>2</v>
       </c>
@@ -17916,7 +17923,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="17">
+    <row r="254" spans="1:11">
       <c r="A254">
         <v>2</v>
       </c>
@@ -17951,7 +17958,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="17">
+    <row r="255" spans="1:11">
       <c r="A255">
         <v>2</v>
       </c>
@@ -17986,7 +17993,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="17">
+    <row r="256" spans="1:11">
       <c r="A256">
         <v>2</v>
       </c>
@@ -18021,7 +18028,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="17">
+    <row r="257" spans="1:11">
       <c r="A257">
         <v>2</v>
       </c>
@@ -18056,7 +18063,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="17">
+    <row r="258" spans="1:11">
       <c r="A258">
         <v>2</v>
       </c>
@@ -18091,7 +18098,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="17">
+    <row r="259" spans="1:11">
       <c r="A259">
         <v>2</v>
       </c>
@@ -18126,7 +18133,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="17">
+    <row r="260" spans="1:11">
       <c r="A260">
         <v>2</v>
       </c>
@@ -18161,7 +18168,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="17">
+    <row r="261" spans="1:11">
       <c r="A261">
         <v>2</v>
       </c>
@@ -18196,7 +18203,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="17">
+    <row r="262" spans="1:11">
       <c r="A262">
         <v>2</v>
       </c>
@@ -18231,7 +18238,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="17">
+    <row r="263" spans="1:11">
       <c r="A263">
         <v>2</v>
       </c>
@@ -18266,7 +18273,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="17">
+    <row r="264" spans="1:11">
       <c r="A264">
         <v>2</v>
       </c>
@@ -18301,7 +18308,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="17">
+    <row r="265" spans="1:11">
       <c r="A265">
         <v>2</v>
       </c>
@@ -18336,7 +18343,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="17">
+    <row r="266" spans="1:11">
       <c r="A266">
         <v>2</v>
       </c>
@@ -18371,7 +18378,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="17">
+    <row r="267" spans="1:11">
       <c r="A267">
         <v>2</v>
       </c>
@@ -18406,7 +18413,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="17">
+    <row r="268" spans="1:11">
       <c r="A268">
         <v>2</v>
       </c>
@@ -18441,7 +18448,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="17">
+    <row r="269" spans="1:11">
       <c r="A269">
         <v>2</v>
       </c>
@@ -18476,7 +18483,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="17">
+    <row r="270" spans="1:11">
       <c r="A270">
         <v>2</v>
       </c>
@@ -18511,7 +18518,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="17">
+    <row r="271" spans="1:11">
       <c r="A271">
         <v>2</v>
       </c>
@@ -18546,7 +18553,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="17">
+    <row r="272" spans="1:11">
       <c r="A272">
         <v>2</v>
       </c>
@@ -18581,7 +18588,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="17">
+    <row r="273" spans="1:11">
       <c r="A273">
         <v>2</v>
       </c>
@@ -18616,7 +18623,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="17">
+    <row r="274" spans="1:11">
       <c r="A274">
         <v>2</v>
       </c>
@@ -18651,7 +18658,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="17">
+    <row r="275" spans="1:11">
       <c r="A275">
         <v>2</v>
       </c>
@@ -18686,7 +18693,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="17">
+    <row r="276" spans="1:11">
       <c r="A276">
         <v>2</v>
       </c>
@@ -18721,7 +18728,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="17">
+    <row r="277" spans="1:11">
       <c r="A277">
         <v>2</v>
       </c>
@@ -18756,7 +18763,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="17">
+    <row r="278" spans="1:11">
       <c r="A278">
         <v>2</v>
       </c>
@@ -18791,7 +18798,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="17">
+    <row r="279" spans="1:11">
       <c r="A279">
         <v>2</v>
       </c>
@@ -18826,7 +18833,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="17">
+    <row r="280" spans="1:11">
       <c r="A280">
         <v>2</v>
       </c>
@@ -18861,7 +18868,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="17">
+    <row r="281" spans="1:11">
       <c r="A281">
         <v>2</v>
       </c>
@@ -18896,7 +18903,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="17">
+    <row r="282" spans="1:11">
       <c r="A282">
         <v>2</v>
       </c>
@@ -18931,7 +18938,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="17">
+    <row r="283" spans="1:11">
       <c r="A283">
         <v>2</v>
       </c>
@@ -18966,7 +18973,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="17">
+    <row r="284" spans="1:11">
       <c r="A284">
         <v>2</v>
       </c>
@@ -19001,7 +19008,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="17">
+    <row r="285" spans="1:11">
       <c r="A285">
         <v>2</v>
       </c>
@@ -19036,7 +19043,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="17">
+    <row r="286" spans="1:11">
       <c r="A286">
         <v>2</v>
       </c>
@@ -19071,7 +19078,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="17">
+    <row r="287" spans="1:11">
       <c r="A287">
         <v>2</v>
       </c>
@@ -19106,7 +19113,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="34">
+    <row r="288" spans="1:11">
       <c r="A288">
         <v>2</v>
       </c>
@@ -19141,7 +19148,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="17">
+    <row r="289" spans="1:11">
       <c r="A289">
         <v>2</v>
       </c>
@@ -19176,7 +19183,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="17">
+    <row r="290" spans="1:11">
       <c r="A290">
         <v>2</v>
       </c>
@@ -19211,7 +19218,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="17">
+    <row r="291" spans="1:11">
       <c r="A291">
         <v>2</v>
       </c>
@@ -19246,7 +19253,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="17">
+    <row r="292" spans="1:11">
       <c r="A292">
         <v>2</v>
       </c>
@@ -19281,7 +19288,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="17">
+    <row r="293" spans="1:11">
       <c r="A293">
         <v>2</v>
       </c>
@@ -19316,7 +19323,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="17">
+    <row r="294" spans="1:11">
       <c r="A294">
         <v>2</v>
       </c>
@@ -19351,7 +19358,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="17">
+    <row r="295" spans="1:11">
       <c r="A295">
         <v>2</v>
       </c>
@@ -19386,7 +19393,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="17">
+    <row r="296" spans="1:11">
       <c r="A296">
         <v>2</v>
       </c>
@@ -19421,7 +19428,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="17">
+    <row r="297" spans="1:11">
       <c r="A297">
         <v>2</v>
       </c>
@@ -19456,7 +19463,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="17">
+    <row r="298" spans="1:11">
       <c r="A298">
         <v>2</v>
       </c>
@@ -19491,7 +19498,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="17">
+    <row r="299" spans="1:11">
       <c r="A299">
         <v>2</v>
       </c>
@@ -19526,7 +19533,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="17">
+    <row r="300" spans="1:11">
       <c r="A300">
         <v>2</v>
       </c>
@@ -19561,7 +19568,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="17">
+    <row r="301" spans="1:11">
       <c r="A301">
         <v>2</v>
       </c>
@@ -19596,7 +19603,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="17">
+    <row r="302" spans="1:11">
       <c r="A302">
         <v>2</v>
       </c>
@@ -19631,7 +19638,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="17">
+    <row r="303" spans="1:11">
       <c r="A303">
         <v>2</v>
       </c>
@@ -19666,7 +19673,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="17">
+    <row r="304" spans="1:11">
       <c r="A304">
         <v>2</v>
       </c>
@@ -19701,7 +19708,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="17">
+    <row r="305" spans="1:11">
       <c r="A305">
         <v>2</v>
       </c>
@@ -19736,7 +19743,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="17">
+    <row r="306" spans="1:11">
       <c r="A306">
         <v>2</v>
       </c>
@@ -19771,7 +19778,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="17">
+    <row r="307" spans="1:11">
       <c r="A307">
         <v>2</v>
       </c>
@@ -19806,7 +19813,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="17">
+    <row r="308" spans="1:11">
       <c r="A308">
         <v>2</v>
       </c>
@@ -19841,7 +19848,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="17">
+    <row r="309" spans="1:11">
       <c r="A309">
         <v>2</v>
       </c>
@@ -19876,7 +19883,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="17">
+    <row r="310" spans="1:11">
       <c r="A310">
         <v>2</v>
       </c>
@@ -19911,7 +19918,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="17">
+    <row r="311" spans="1:11">
       <c r="A311">
         <v>2</v>
       </c>
@@ -19946,7 +19953,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="17">
+    <row r="312" spans="1:11">
       <c r="A312">
         <v>2</v>
       </c>
@@ -19981,7 +19988,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="17">
+    <row r="313" spans="1:11">
       <c r="A313">
         <v>2</v>
       </c>
@@ -20016,7 +20023,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="17">
+    <row r="314" spans="1:11">
       <c r="A314">
         <v>2</v>
       </c>
@@ -20051,7 +20058,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="17">
+    <row r="315" spans="1:11">
       <c r="A315">
         <v>2</v>
       </c>
@@ -20086,7 +20093,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="17">
+    <row r="316" spans="1:11">
       <c r="A316">
         <v>2</v>
       </c>
@@ -20121,7 +20128,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="17">
+    <row r="317" spans="1:11">
       <c r="A317">
         <v>2</v>
       </c>
@@ -20156,7 +20163,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="17">
+    <row r="318" spans="1:11">
       <c r="A318">
         <v>2</v>
       </c>
@@ -20191,7 +20198,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="17">
+    <row r="319" spans="1:11">
       <c r="A319">
         <v>2</v>
       </c>
@@ -20226,7 +20233,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="17">
+    <row r="320" spans="1:11">
       <c r="A320">
         <v>2</v>
       </c>
@@ -20261,7 +20268,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="17">
+    <row r="321" spans="1:12">
       <c r="A321">
         <v>2</v>
       </c>
@@ -20296,7 +20303,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="17">
+    <row r="322" spans="1:12">
       <c r="A322">
         <v>2</v>
       </c>
@@ -20331,7 +20338,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="17">
+    <row r="323" spans="1:12">
       <c r="A323">
         <v>2</v>
       </c>
@@ -20366,7 +20373,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="17">
+    <row r="324" spans="1:12">
       <c r="A324">
         <v>2</v>
       </c>
@@ -20401,7 +20408,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="17">
+    <row r="325" spans="1:12">
       <c r="A325">
         <v>2</v>
       </c>
@@ -20436,7 +20443,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="17">
+    <row r="326" spans="1:12">
       <c r="A326">
         <v>2</v>
       </c>
@@ -20471,7 +20478,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="17">
+    <row r="327" spans="1:12">
       <c r="A327">
         <v>2</v>
       </c>
@@ -20506,7 +20513,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="17">
+    <row r="328" spans="1:12">
       <c r="A328">
         <v>2</v>
       </c>
@@ -20541,7 +20548,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="17">
+    <row r="329" spans="1:12">
       <c r="A329">
         <v>2</v>
       </c>
@@ -20576,7 +20583,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="17">
+    <row r="330" spans="1:12">
       <c r="A330">
         <v>2</v>
       </c>
@@ -20611,7 +20618,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="17">
+    <row r="331" spans="1:12">
       <c r="A331">
         <v>2</v>
       </c>
@@ -20646,7 +20653,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="17">
+    <row r="332" spans="1:12">
       <c r="A332">
         <v>2</v>
       </c>
@@ -20681,7 +20688,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="17">
+    <row r="333" spans="1:12">
       <c r="A333">
         <v>2</v>
       </c>
@@ -20716,7 +20723,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="17">
+    <row r="334" spans="1:12">
       <c r="A334">
         <v>2</v>
       </c>
@@ -20751,7 +20758,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="17">
+    <row r="335" spans="1:12">
       <c r="A335">
         <v>2</v>
       </c>
@@ -20786,7 +20793,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="17">
+    <row r="336" spans="1:12">
       <c r="A336">
         <v>2</v>
       </c>
@@ -20824,7 +20831,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="17">
+    <row r="337" spans="1:12">
       <c r="A337">
         <v>2</v>
       </c>
@@ -20859,7 +20866,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="17">
+    <row r="338" spans="1:12">
       <c r="A338">
         <v>2</v>
       </c>
@@ -20897,7 +20904,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="17">
+    <row r="339" spans="1:12">
       <c r="A339">
         <v>2</v>
       </c>
@@ -20932,7 +20939,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="17">
+    <row r="340" spans="1:12">
       <c r="A340">
         <v>2</v>
       </c>
@@ -20967,7 +20974,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="34">
+    <row r="341" spans="1:12" ht="31.5">
       <c r="A341">
         <v>2</v>
       </c>
@@ -21002,7 +21009,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="17">
+    <row r="342" spans="1:12">
       <c r="A342">
         <v>2</v>
       </c>
@@ -21037,7 +21044,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="343" spans="1:12" ht="17">
+    <row r="343" spans="1:12">
       <c r="A343">
         <v>2</v>
       </c>
@@ -21072,7 +21079,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="344" spans="1:12" ht="17">
+    <row r="344" spans="1:12">
       <c r="A344">
         <v>2</v>
       </c>
@@ -21107,7 +21114,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="345" spans="1:12" ht="17">
+    <row r="345" spans="1:12">
       <c r="A345">
         <v>2</v>
       </c>
@@ -21142,7 +21149,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="346" spans="1:12" ht="17">
+    <row r="346" spans="1:12">
       <c r="A346">
         <v>2</v>
       </c>
@@ -21177,7 +21184,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="347" spans="1:12" ht="17">
+    <row r="347" spans="1:12">
       <c r="A347">
         <v>2</v>
       </c>
@@ -21212,7 +21219,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="348" spans="1:12" ht="17">
+    <row r="348" spans="1:12">
       <c r="A348">
         <v>2</v>
       </c>
@@ -21247,7 +21254,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="349" spans="1:12" ht="17">
+    <row r="349" spans="1:12">
       <c r="A349">
         <v>2</v>
       </c>
@@ -21282,7 +21289,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="350" spans="1:12" ht="17">
+    <row r="350" spans="1:12">
       <c r="A350">
         <v>2</v>
       </c>
@@ -21317,7 +21324,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="351" spans="1:12" ht="17">
+    <row r="351" spans="1:12">
       <c r="A351">
         <v>2</v>
       </c>
@@ -21352,7 +21359,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="352" spans="1:12" ht="17">
+    <row r="352" spans="1:12">
       <c r="A352">
         <v>2</v>
       </c>
@@ -21387,7 +21394,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="17">
+    <row r="353" spans="1:11">
       <c r="A353">
         <v>2</v>
       </c>
@@ -21422,7 +21429,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="17">
+    <row r="354" spans="1:11">
       <c r="A354">
         <v>2</v>
       </c>
@@ -21457,7 +21464,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="17">
+    <row r="355" spans="1:11">
       <c r="A355">
         <v>2</v>
       </c>
@@ -21492,7 +21499,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="17">
+    <row r="356" spans="1:11">
       <c r="A356">
         <v>2</v>
       </c>
@@ -21527,7 +21534,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="17">
+    <row r="357" spans="1:11">
       <c r="A357">
         <v>2</v>
       </c>
@@ -21562,7 +21569,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="17">
+    <row r="358" spans="1:11">
       <c r="A358">
         <v>2</v>
       </c>
@@ -21597,7 +21604,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="17">
+    <row r="359" spans="1:11">
       <c r="A359">
         <v>2</v>
       </c>
@@ -21632,7 +21639,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="17">
+    <row r="360" spans="1:11">
       <c r="A360">
         <v>2</v>
       </c>
@@ -21667,7 +21674,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="17">
+    <row r="361" spans="1:11">
       <c r="A361">
         <v>2</v>
       </c>
@@ -21702,7 +21709,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="17">
+    <row r="362" spans="1:11">
       <c r="A362">
         <v>2</v>
       </c>
@@ -21737,7 +21744,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="17">
+    <row r="363" spans="1:11">
       <c r="A363">
         <v>2</v>
       </c>
@@ -21772,7 +21779,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="17">
+    <row r="364" spans="1:11">
       <c r="A364">
         <v>2</v>
       </c>
@@ -21807,7 +21814,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="17">
+    <row r="365" spans="1:11">
       <c r="A365">
         <v>2</v>
       </c>
@@ -21842,7 +21849,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="17">
+    <row r="366" spans="1:11">
       <c r="A366">
         <v>2</v>
       </c>
@@ -21877,7 +21884,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="17">
+    <row r="367" spans="1:11">
       <c r="A367">
         <v>2</v>
       </c>
@@ -21912,7 +21919,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="17">
+    <row r="368" spans="1:11">
       <c r="A368">
         <v>2</v>
       </c>
@@ -21947,7 +21954,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="17">
+    <row r="369" spans="1:11">
       <c r="A369">
         <v>2</v>
       </c>
@@ -21982,7 +21989,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="17">
+    <row r="370" spans="1:11">
       <c r="A370">
         <v>2</v>
       </c>
@@ -22017,7 +22024,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="17">
+    <row r="371" spans="1:11">
       <c r="A371">
         <v>2</v>
       </c>
@@ -22052,7 +22059,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="17">
+    <row r="372" spans="1:11">
       <c r="A372">
         <v>2</v>
       </c>
@@ -22087,7 +22094,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="17">
+    <row r="373" spans="1:11">
       <c r="A373">
         <v>2</v>
       </c>
@@ -22122,7 +22129,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="17">
+    <row r="374" spans="1:11">
       <c r="A374">
         <v>2</v>
       </c>
@@ -22157,7 +22164,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="17">
+    <row r="375" spans="1:11">
       <c r="A375">
         <v>2</v>
       </c>
@@ -22192,7 +22199,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="17">
+    <row r="376" spans="1:11">
       <c r="A376">
         <v>2</v>
       </c>
@@ -22227,7 +22234,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="17">
+    <row r="377" spans="1:11">
       <c r="A377">
         <v>2</v>
       </c>
@@ -22262,7 +22269,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="17">
+    <row r="378" spans="1:11">
       <c r="A378">
         <v>2</v>
       </c>
@@ -22297,7 +22304,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="17">
+    <row r="379" spans="1:11">
       <c r="A379">
         <v>2</v>
       </c>
@@ -22332,7 +22339,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="17">
+    <row r="380" spans="1:11">
       <c r="A380">
         <v>2</v>
       </c>
@@ -22367,7 +22374,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="17">
+    <row r="381" spans="1:11">
       <c r="A381">
         <v>2</v>
       </c>
@@ -22402,7 +22409,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="17">
+    <row r="382" spans="1:11">
       <c r="A382">
         <v>2</v>
       </c>
@@ -22437,7 +22444,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="17">
+    <row r="383" spans="1:11">
       <c r="A383">
         <v>2</v>
       </c>
@@ -22472,7 +22479,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="17">
+    <row r="384" spans="1:11">
       <c r="A384">
         <v>2</v>
       </c>
@@ -22507,7 +22514,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="17">
+    <row r="385" spans="1:11">
       <c r="A385">
         <v>2</v>
       </c>
@@ -22542,7 +22549,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="17">
+    <row r="386" spans="1:11">
       <c r="A386">
         <v>2</v>
       </c>
@@ -22577,7 +22584,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="17">
+    <row r="387" spans="1:11">
       <c r="A387">
         <v>2</v>
       </c>
@@ -22612,7 +22619,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="17">
+    <row r="388" spans="1:11">
       <c r="A388">
         <v>2</v>
       </c>
@@ -22647,7 +22654,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="17">
+    <row r="389" spans="1:11">
       <c r="A389">
         <v>2</v>
       </c>
@@ -22682,7 +22689,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="17">
+    <row r="390" spans="1:11">
       <c r="A390">
         <v>2</v>
       </c>
@@ -22717,7 +22724,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="17">
+    <row r="391" spans="1:11">
       <c r="A391">
         <v>2</v>
       </c>
@@ -22752,7 +22759,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="17">
+    <row r="392" spans="1:11">
       <c r="A392">
         <v>2</v>
       </c>
@@ -22787,7 +22794,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="17">
+    <row r="393" spans="1:11">
       <c r="A393">
         <v>2</v>
       </c>
@@ -22822,7 +22829,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="17">
+    <row r="394" spans="1:11">
       <c r="A394">
         <v>2</v>
       </c>
@@ -22857,7 +22864,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="17">
+    <row r="395" spans="1:11">
       <c r="A395">
         <v>2</v>
       </c>
@@ -22892,7 +22899,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="17">
+    <row r="396" spans="1:11">
       <c r="A396">
         <v>2</v>
       </c>
@@ -22927,7 +22934,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="17">
+    <row r="397" spans="1:11">
       <c r="A397">
         <v>2</v>
       </c>
@@ -22962,7 +22969,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="17">
+    <row r="398" spans="1:11">
       <c r="A398">
         <v>2</v>
       </c>
@@ -22997,7 +23004,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="17">
+    <row r="399" spans="1:11">
       <c r="A399">
         <v>2</v>
       </c>
@@ -23032,7 +23039,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="17">
+    <row r="400" spans="1:11">
       <c r="A400">
         <v>2</v>
       </c>
@@ -23067,7 +23074,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="17">
+    <row r="401" spans="1:11">
       <c r="A401">
         <v>2</v>
       </c>
@@ -23102,7 +23109,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="17">
+    <row r="402" spans="1:11">
       <c r="A402">
         <v>2</v>
       </c>
@@ -23137,7 +23144,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="17">
+    <row r="403" spans="1:11">
       <c r="A403">
         <v>2</v>
       </c>
@@ -23172,7 +23179,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="17">
+    <row r="404" spans="1:11">
       <c r="A404">
         <v>2</v>
       </c>
@@ -23207,7 +23214,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="17">
+    <row r="405" spans="1:11">
       <c r="A405">
         <v>2</v>
       </c>
@@ -23242,7 +23249,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="17">
+    <row r="406" spans="1:11">
       <c r="A406">
         <v>2</v>
       </c>
@@ -23277,7 +23284,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="17">
+    <row r="407" spans="1:11">
       <c r="A407">
         <v>2</v>
       </c>
@@ -23312,7 +23319,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="17">
+    <row r="408" spans="1:11">
       <c r="A408">
         <v>2</v>
       </c>
@@ -23347,7 +23354,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="17">
+    <row r="409" spans="1:11">
       <c r="A409">
         <v>2</v>
       </c>
@@ -23382,7 +23389,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="17">
+    <row r="410" spans="1:11">
       <c r="A410">
         <v>2</v>
       </c>
@@ -23417,7 +23424,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="17">
+    <row r="411" spans="1:11">
       <c r="A411">
         <v>2</v>
       </c>
@@ -23452,7 +23459,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="17">
+    <row r="412" spans="1:11">
       <c r="A412">
         <v>2</v>
       </c>
@@ -23487,7 +23494,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="17">
+    <row r="413" spans="1:11">
       <c r="A413">
         <v>2</v>
       </c>
@@ -23522,7 +23529,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="17">
+    <row r="414" spans="1:11">
       <c r="A414">
         <v>2</v>
       </c>
@@ -23557,7 +23564,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="17">
+    <row r="415" spans="1:11">
       <c r="A415">
         <v>2</v>
       </c>
@@ -23592,7 +23599,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="17">
+    <row r="416" spans="1:11">
       <c r="A416">
         <v>2</v>
       </c>
@@ -23627,7 +23634,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="17">
+    <row r="417" spans="1:11">
       <c r="A417">
         <v>2</v>
       </c>
@@ -23662,7 +23669,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="17">
+    <row r="418" spans="1:11">
       <c r="A418">
         <v>2</v>
       </c>
@@ -23697,7 +23704,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="17">
+    <row r="419" spans="1:11">
       <c r="A419">
         <v>2</v>
       </c>
@@ -23732,7 +23739,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="17">
+    <row r="420" spans="1:11">
       <c r="A420">
         <v>2</v>
       </c>
@@ -23767,7 +23774,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="17">
+    <row r="421" spans="1:11">
       <c r="A421">
         <v>2</v>
       </c>
@@ -23802,7 +23809,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="17">
+    <row r="422" spans="1:11">
       <c r="A422">
         <v>2</v>
       </c>
@@ -23837,7 +23844,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="17">
+    <row r="423" spans="1:11">
       <c r="A423">
         <v>2</v>
       </c>
@@ -23872,7 +23879,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="17">
+    <row r="424" spans="1:11">
       <c r="A424">
         <v>2</v>
       </c>
@@ -23907,7 +23914,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="17">
+    <row r="425" spans="1:11">
       <c r="A425">
         <v>2</v>
       </c>
@@ -23942,7 +23949,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="17">
+    <row r="426" spans="1:11">
       <c r="A426">
         <v>2</v>
       </c>
@@ -23977,7 +23984,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="17">
+    <row r="427" spans="1:11">
       <c r="A427">
         <v>2</v>
       </c>
@@ -24012,7 +24019,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="17">
+    <row r="428" spans="1:11">
       <c r="A428">
         <v>2</v>
       </c>
@@ -24047,7 +24054,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="17">
+    <row r="429" spans="1:11">
       <c r="A429">
         <v>2</v>
       </c>
@@ -24082,7 +24089,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="17">
+    <row r="430" spans="1:11">
       <c r="A430">
         <v>2</v>
       </c>
@@ -24117,7 +24124,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="17">
+    <row r="431" spans="1:11">
       <c r="A431">
         <v>2</v>
       </c>
@@ -24152,7 +24159,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="17">
+    <row r="432" spans="1:11">
       <c r="A432">
         <v>2</v>
       </c>
@@ -24187,7 +24194,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="17">
+    <row r="433" spans="1:11">
       <c r="A433">
         <v>2</v>
       </c>
@@ -24222,7 +24229,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="17">
+    <row r="434" spans="1:11">
       <c r="A434">
         <v>2</v>
       </c>
@@ -24257,7 +24264,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="17">
+    <row r="435" spans="1:11">
       <c r="A435">
         <v>2</v>
       </c>
@@ -24292,7 +24299,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="17">
+    <row r="436" spans="1:11">
       <c r="A436">
         <v>2</v>
       </c>
@@ -24327,7 +24334,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="17">
+    <row r="437" spans="1:11">
       <c r="A437">
         <v>2</v>
       </c>
@@ -24362,7 +24369,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="17">
+    <row r="438" spans="1:11">
       <c r="A438">
         <v>2</v>
       </c>
@@ -24397,7 +24404,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="17">
+    <row r="439" spans="1:11">
       <c r="A439">
         <v>2</v>
       </c>
@@ -24432,7 +24439,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="17">
+    <row r="440" spans="1:11">
       <c r="A440">
         <v>2</v>
       </c>
@@ -24467,7 +24474,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="17">
+    <row r="441" spans="1:11">
       <c r="A441">
         <v>2</v>
       </c>
@@ -24502,7 +24509,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="17">
+    <row r="442" spans="1:11">
       <c r="A442">
         <v>2</v>
       </c>
@@ -24537,7 +24544,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="17">
+    <row r="443" spans="1:11">
       <c r="A443">
         <v>2</v>
       </c>
@@ -24572,7 +24579,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="17">
+    <row r="444" spans="1:11">
       <c r="A444">
         <v>2</v>
       </c>
@@ -24607,7 +24614,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="17">
+    <row r="445" spans="1:11">
       <c r="A445">
         <v>2</v>
       </c>
@@ -24642,7 +24649,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="17">
+    <row r="446" spans="1:11">
       <c r="A446">
         <v>2</v>
       </c>
@@ -24677,7 +24684,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="17">
+    <row r="447" spans="1:11">
       <c r="A447">
         <v>2</v>
       </c>
@@ -24712,7 +24719,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="17">
+    <row r="448" spans="1:11">
       <c r="A448">
         <v>2</v>
       </c>
@@ -24747,7 +24754,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="17">
+    <row r="449" spans="1:11">
       <c r="A449">
         <v>2</v>
       </c>
@@ -24782,7 +24789,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="17">
+    <row r="450" spans="1:11">
       <c r="A450">
         <v>2</v>
       </c>
@@ -24817,7 +24824,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="17">
+    <row r="451" spans="1:11">
       <c r="A451">
         <v>2</v>
       </c>
@@ -24852,7 +24859,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="17">
+    <row r="452" spans="1:11">
       <c r="A452">
         <v>2</v>
       </c>
@@ -24887,7 +24894,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="17">
+    <row r="453" spans="1:11">
       <c r="A453">
         <v>2</v>
       </c>
@@ -24919,7 +24926,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="17">
+    <row r="454" spans="1:11">
       <c r="A454">
         <v>2</v>
       </c>
@@ -24954,7 +24961,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="17">
+    <row r="455" spans="1:11">
       <c r="A455">
         <v>2</v>
       </c>
@@ -24989,7 +24996,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="17">
+    <row r="456" spans="1:11">
       <c r="A456">
         <v>2</v>
       </c>
@@ -25024,7 +25031,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="17">
+    <row r="457" spans="1:11">
       <c r="A457">
         <v>2</v>
       </c>
@@ -25059,7 +25066,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="17">
+    <row r="458" spans="1:11">
       <c r="A458">
         <v>2</v>
       </c>
@@ -25094,7 +25101,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="17">
+    <row r="459" spans="1:11">
       <c r="A459">
         <v>2</v>
       </c>
@@ -25129,7 +25136,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="17">
+    <row r="460" spans="1:11">
       <c r="A460">
         <v>2</v>
       </c>
@@ -25164,7 +25171,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="17">
+    <row r="461" spans="1:11">
       <c r="A461">
         <v>2</v>
       </c>
@@ -25199,7 +25206,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="17">
+    <row r="462" spans="1:11">
       <c r="A462">
         <v>2</v>
       </c>
@@ -25234,7 +25241,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="17">
+    <row r="463" spans="1:11">
       <c r="A463">
         <v>2</v>
       </c>
@@ -25269,7 +25276,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="17">
+    <row r="464" spans="1:11">
       <c r="A464">
         <v>2</v>
       </c>
@@ -25304,7 +25311,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="17">
+    <row r="465" spans="1:11">
       <c r="A465">
         <v>2</v>
       </c>
@@ -25339,7 +25346,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="17">
+    <row r="466" spans="1:11">
       <c r="A466">
         <v>2</v>
       </c>
@@ -25374,7 +25381,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="17">
+    <row r="467" spans="1:11">
       <c r="A467">
         <v>2</v>
       </c>
@@ -25409,7 +25416,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="17">
+    <row r="468" spans="1:11">
       <c r="A468">
         <v>2</v>
       </c>
@@ -25444,7 +25451,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="17">
+    <row r="469" spans="1:11">
       <c r="A469">
         <v>2</v>
       </c>
@@ -25479,7 +25486,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="17">
+    <row r="470" spans="1:11">
       <c r="A470">
         <v>2</v>
       </c>
@@ -25514,7 +25521,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="17">
+    <row r="471" spans="1:11">
       <c r="A471">
         <v>2</v>
       </c>
@@ -25549,7 +25556,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="17">
+    <row r="472" spans="1:11">
       <c r="A472">
         <v>2</v>
       </c>
@@ -25584,7 +25591,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="17">
+    <row r="473" spans="1:11">
       <c r="A473">
         <v>2</v>
       </c>
@@ -25619,7 +25626,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="17">
+    <row r="474" spans="1:11">
       <c r="A474">
         <v>2</v>
       </c>
@@ -25654,7 +25661,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="17">
+    <row r="475" spans="1:11">
       <c r="A475">
         <v>2</v>
       </c>
@@ -25689,7 +25696,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="17">
+    <row r="476" spans="1:11">
       <c r="A476">
         <v>2</v>
       </c>
@@ -25724,7 +25731,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="17">
+    <row r="477" spans="1:11">
       <c r="A477">
         <v>2</v>
       </c>
@@ -25759,7 +25766,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="17">
+    <row r="478" spans="1:11">
       <c r="A478">
         <v>2</v>
       </c>
@@ -25794,7 +25801,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="17">
+    <row r="479" spans="1:11">
       <c r="A479">
         <v>2</v>
       </c>
@@ -25829,7 +25836,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="17">
+    <row r="480" spans="1:11">
       <c r="A480">
         <v>2</v>
       </c>
@@ -25864,7 +25871,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="481" spans="1:12" ht="17">
+    <row r="481" spans="1:12">
       <c r="A481">
         <v>2</v>
       </c>
@@ -25899,7 +25906,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="482" spans="1:12" ht="17">
+    <row r="482" spans="1:12">
       <c r="A482">
         <v>2</v>
       </c>
@@ -25915,7 +25922,7 @@
       <c r="E482">
         <v>455</v>
       </c>
-      <c r="F482" s="1" t="s">
+      <c r="F482" s="18" t="s">
         <v>1136</v>
       </c>
       <c r="G482" t="s">
@@ -25934,7 +25941,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="483" spans="1:12" ht="17">
+    <row r="483" spans="1:12">
       <c r="A483">
         <v>2</v>
       </c>
@@ -25969,7 +25976,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="484" spans="1:12" ht="17">
+    <row r="484" spans="1:12">
       <c r="A484">
         <v>2</v>
       </c>
@@ -26004,7 +26011,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="485" spans="1:12" ht="17">
+    <row r="485" spans="1:12">
       <c r="A485">
         <v>2</v>
       </c>
@@ -26039,7 +26046,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="486" spans="1:12" ht="17">
+    <row r="486" spans="1:12">
       <c r="A486">
         <v>2</v>
       </c>
@@ -26074,7 +26081,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="487" spans="1:12" ht="17">
+    <row r="487" spans="1:12">
       <c r="A487">
         <v>2</v>
       </c>
@@ -26112,7 +26119,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="488" spans="1:12" ht="17">
+    <row r="488" spans="1:12">
       <c r="A488">
         <v>2</v>
       </c>
@@ -26147,7 +26154,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="489" spans="1:12" ht="17">
+    <row r="489" spans="1:12">
       <c r="A489">
         <v>2</v>
       </c>
@@ -26182,7 +26189,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="490" spans="1:12" ht="17">
+    <row r="490" spans="1:12">
       <c r="A490">
         <v>2</v>
       </c>
@@ -26217,7 +26224,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="491" spans="1:12" ht="17">
+    <row r="491" spans="1:12">
       <c r="A491">
         <v>2</v>
       </c>
@@ -26252,7 +26259,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="492" spans="1:12" ht="17">
+    <row r="492" spans="1:12">
       <c r="A492">
         <v>2</v>
       </c>
@@ -26287,7 +26294,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="493" spans="1:12" ht="17">
+    <row r="493" spans="1:12">
       <c r="A493">
         <v>2</v>
       </c>
@@ -26322,7 +26329,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="494" spans="1:12" ht="17">
+    <row r="494" spans="1:12">
       <c r="A494">
         <v>2</v>
       </c>
@@ -26357,7 +26364,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="495" spans="1:12" ht="17">
+    <row r="495" spans="1:12">
       <c r="A495">
         <v>2</v>
       </c>
@@ -26392,7 +26399,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="496" spans="1:12" ht="17">
+    <row r="496" spans="1:12">
       <c r="A496">
         <v>2</v>
       </c>
@@ -26427,7 +26434,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="17">
+    <row r="497" spans="1:11">
       <c r="A497">
         <v>2</v>
       </c>
@@ -26462,7 +26469,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="17">
+    <row r="498" spans="1:11">
       <c r="A498">
         <v>2</v>
       </c>
@@ -26497,7 +26504,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="17">
+    <row r="499" spans="1:11">
       <c r="A499">
         <v>2</v>
       </c>
@@ -26532,7 +26539,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="17">
+    <row r="500" spans="1:11">
       <c r="A500">
         <v>2</v>
       </c>
@@ -26567,7 +26574,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="17">
+    <row r="501" spans="1:11">
       <c r="A501">
         <v>2</v>
       </c>
@@ -26602,7 +26609,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="17">
+    <row r="502" spans="1:11">
       <c r="A502">
         <v>2</v>
       </c>
@@ -26637,7 +26644,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="17">
+    <row r="503" spans="1:11">
       <c r="A503">
         <v>2</v>
       </c>
@@ -26672,7 +26679,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="17">
+    <row r="504" spans="1:11">
       <c r="A504">
         <v>2</v>
       </c>
@@ -26707,7 +26714,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="17">
+    <row r="505" spans="1:11">
       <c r="A505">
         <v>2</v>
       </c>
@@ -26742,7 +26749,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="17">
+    <row r="506" spans="1:11">
       <c r="A506">
         <v>2</v>
       </c>
@@ -26777,7 +26784,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="17">
+    <row r="507" spans="1:11">
       <c r="A507">
         <v>2</v>
       </c>
@@ -26812,7 +26819,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="17">
+    <row r="508" spans="1:11">
       <c r="A508">
         <v>2</v>
       </c>
@@ -26847,7 +26854,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="17">
+    <row r="509" spans="1:11">
       <c r="A509">
         <v>2</v>
       </c>
@@ -26882,7 +26889,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="17">
+    <row r="510" spans="1:11">
       <c r="A510">
         <v>2</v>
       </c>
@@ -26917,7 +26924,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="17">
+    <row r="511" spans="1:11">
       <c r="A511">
         <v>2</v>
       </c>
@@ -26952,7 +26959,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="17">
+    <row r="512" spans="1:11">
       <c r="A512">
         <v>2</v>
       </c>
@@ -26987,7 +26994,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="17">
+    <row r="513" spans="1:11">
       <c r="A513">
         <v>2</v>
       </c>
@@ -27022,7 +27029,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="17">
+    <row r="514" spans="1:11">
       <c r="A514">
         <v>2</v>
       </c>
@@ -27057,7 +27064,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="17">
+    <row r="515" spans="1:11">
       <c r="A515">
         <v>2</v>
       </c>
@@ -27092,7 +27099,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="17">
+    <row r="516" spans="1:11">
       <c r="A516">
         <v>2</v>
       </c>
@@ -27127,7 +27134,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="17">
+    <row r="517" spans="1:11">
       <c r="A517">
         <v>2</v>
       </c>
@@ -27162,7 +27169,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="17">
+    <row r="518" spans="1:11">
       <c r="A518">
         <v>2</v>
       </c>
@@ -27197,7 +27204,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="34">
+    <row r="519" spans="1:11" ht="31.5">
       <c r="A519">
         <v>2</v>
       </c>
@@ -27232,7 +27239,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="17">
+    <row r="520" spans="1:11">
       <c r="A520">
         <v>2</v>
       </c>
@@ -27267,7 +27274,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="17">
+    <row r="521" spans="1:11">
       <c r="A521">
         <v>2</v>
       </c>
@@ -27302,7 +27309,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="17">
+    <row r="522" spans="1:11">
       <c r="A522">
         <v>2</v>
       </c>
@@ -27337,7 +27344,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="17">
+    <row r="523" spans="1:11">
       <c r="A523">
         <v>2</v>
       </c>
@@ -27372,7 +27379,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="17">
+    <row r="524" spans="1:11">
       <c r="A524">
         <v>2</v>
       </c>
@@ -27407,7 +27414,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="17">
+    <row r="525" spans="1:11">
       <c r="A525">
         <v>2</v>
       </c>
@@ -27442,7 +27449,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="17">
+    <row r="526" spans="1:11">
       <c r="A526">
         <v>2</v>
       </c>
@@ -27477,7 +27484,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="17">
+    <row r="527" spans="1:11">
       <c r="A527">
         <v>2</v>
       </c>
@@ -27512,7 +27519,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="17">
+    <row r="528" spans="1:11">
       <c r="A528">
         <v>2</v>
       </c>
@@ -27547,7 +27554,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="529" spans="1:12" ht="17">
+    <row r="529" spans="1:12">
       <c r="A529">
         <v>2</v>
       </c>
@@ -27585,7 +27592,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="530" spans="1:12" ht="17">
+    <row r="530" spans="1:12">
       <c r="A530">
         <v>2</v>
       </c>
@@ -27623,7 +27630,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="531" spans="1:12" ht="17">
+    <row r="531" spans="1:12">
       <c r="A531">
         <v>2</v>
       </c>
@@ -27658,7 +27665,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="532" spans="1:12" ht="17">
+    <row r="532" spans="1:12">
       <c r="A532">
         <v>2</v>
       </c>
@@ -27693,7 +27700,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="533" spans="1:12" ht="17">
+    <row r="533" spans="1:12">
       <c r="A533">
         <v>2</v>
       </c>
@@ -27728,7 +27735,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="534" spans="1:12" ht="17">
+    <row r="534" spans="1:12">
       <c r="A534">
         <v>2</v>
       </c>
@@ -27763,7 +27770,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="535" spans="1:12" ht="17">
+    <row r="535" spans="1:12">
       <c r="A535">
         <v>2</v>
       </c>
@@ -27798,7 +27805,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="536" spans="1:12" ht="17">
+    <row r="536" spans="1:12">
       <c r="A536">
         <v>2</v>
       </c>
@@ -27833,7 +27840,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="537" spans="1:12" ht="17">
+    <row r="537" spans="1:12">
       <c r="A537">
         <v>2</v>
       </c>
@@ -27868,7 +27875,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="538" spans="1:12" ht="17">
+    <row r="538" spans="1:12">
       <c r="A538">
         <v>2</v>
       </c>
@@ -27903,7 +27910,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="539" spans="1:12" ht="17">
+    <row r="539" spans="1:12">
       <c r="A539">
         <v>2</v>
       </c>
@@ -27938,7 +27945,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="540" spans="1:12" ht="17">
+    <row r="540" spans="1:12">
       <c r="A540">
         <v>2</v>
       </c>
@@ -27973,7 +27980,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="541" spans="1:12" ht="17">
+    <row r="541" spans="1:12">
       <c r="A541">
         <v>2</v>
       </c>
@@ -28008,7 +28015,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="542" spans="1:12" ht="17">
+    <row r="542" spans="1:12">
       <c r="A542">
         <v>2</v>
       </c>
@@ -28043,7 +28050,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="543" spans="1:12" ht="17">
+    <row r="543" spans="1:12">
       <c r="A543">
         <v>2</v>
       </c>
@@ -28078,7 +28085,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="544" spans="1:12" ht="17">
+    <row r="544" spans="1:12">
       <c r="A544">
         <v>2</v>
       </c>
@@ -28113,7 +28120,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="17">
+    <row r="545" spans="1:11">
       <c r="A545">
         <v>2</v>
       </c>
@@ -28148,7 +28155,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="17">
+    <row r="546" spans="1:11">
       <c r="A546">
         <v>2</v>
       </c>
@@ -28183,7 +28190,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="17">
+    <row r="547" spans="1:11">
       <c r="A547">
         <v>2</v>
       </c>
@@ -28218,7 +28225,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="17">
+    <row r="548" spans="1:11">
       <c r="A548">
         <v>2</v>
       </c>
@@ -28253,7 +28260,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="17">
+    <row r="549" spans="1:11">
       <c r="A549">
         <v>2</v>
       </c>
@@ -28288,7 +28295,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="17">
+    <row r="550" spans="1:11">
       <c r="A550">
         <v>2</v>
       </c>
@@ -28323,7 +28330,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="17">
+    <row r="551" spans="1:11">
       <c r="A551">
         <v>2</v>
       </c>
@@ -28358,7 +28365,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="17">
+    <row r="552" spans="1:11">
       <c r="A552">
         <v>2</v>
       </c>
@@ -28393,7 +28400,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="17">
+    <row r="553" spans="1:11">
       <c r="A553">
         <v>2</v>
       </c>
@@ -28428,7 +28435,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="17">
+    <row r="554" spans="1:11">
       <c r="A554">
         <v>2</v>
       </c>
@@ -28463,7 +28470,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="17">
+    <row r="555" spans="1:11">
       <c r="A555">
         <v>2</v>
       </c>
@@ -28498,7 +28505,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="17">
+    <row r="556" spans="1:11">
       <c r="A556">
         <v>2</v>
       </c>
@@ -28533,7 +28540,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="17">
+    <row r="557" spans="1:11">
       <c r="A557">
         <v>2</v>
       </c>
@@ -28568,7 +28575,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="17">
+    <row r="558" spans="1:11">
       <c r="A558">
         <v>2</v>
       </c>
@@ -28603,7 +28610,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="17">
+    <row r="559" spans="1:11">
       <c r="A559">
         <v>2</v>
       </c>
@@ -28638,7 +28645,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="17">
+    <row r="560" spans="1:11">
       <c r="A560">
         <v>2</v>
       </c>
@@ -28673,7 +28680,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="561" spans="1:12" ht="17">
+    <row r="561" spans="1:12">
       <c r="A561">
         <v>2</v>
       </c>
@@ -28708,7 +28715,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="562" spans="1:12" ht="17">
+    <row r="562" spans="1:12">
       <c r="A562">
         <v>2</v>
       </c>
@@ -28743,7 +28750,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="563" spans="1:12" ht="17">
+    <row r="563" spans="1:12">
       <c r="A563">
         <v>2</v>
       </c>
@@ -28778,7 +28785,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="564" spans="1:12" ht="17">
+    <row r="564" spans="1:12">
       <c r="A564">
         <v>2</v>
       </c>
@@ -28813,7 +28820,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="565" spans="1:12" ht="17">
+    <row r="565" spans="1:12">
       <c r="A565">
         <v>2</v>
       </c>
@@ -28848,7 +28855,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="566" spans="1:12" ht="34">
+    <row r="566" spans="1:12" ht="31.5">
       <c r="A566">
         <v>2</v>
       </c>
@@ -28883,7 +28890,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="567" spans="1:12" ht="17">
+    <row r="567" spans="1:12">
       <c r="A567">
         <v>2</v>
       </c>
@@ -28918,7 +28925,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="568" spans="1:12" ht="17">
+    <row r="568" spans="1:12">
       <c r="A568">
         <v>2</v>
       </c>
@@ -28953,7 +28960,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="569" spans="1:12" ht="17">
+    <row r="569" spans="1:12">
       <c r="A569">
         <v>2</v>
       </c>
@@ -28991,7 +28998,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="570" spans="1:12" ht="17">
+    <row r="570" spans="1:12">
       <c r="A570">
         <v>2</v>
       </c>
@@ -29029,7 +29036,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="571" spans="1:12" ht="17">
+    <row r="571" spans="1:12">
       <c r="A571">
         <v>2</v>
       </c>
@@ -29067,7 +29074,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="572" spans="1:12" ht="17">
+    <row r="572" spans="1:12">
       <c r="A572">
         <v>2</v>
       </c>
@@ -29102,7 +29109,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="573" spans="1:12" ht="17">
+    <row r="573" spans="1:12">
       <c r="A573">
         <v>2</v>
       </c>
@@ -29137,7 +29144,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="574" spans="1:12" ht="17">
+    <row r="574" spans="1:12">
       <c r="A574">
         <v>2</v>
       </c>
@@ -29172,7 +29179,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="575" spans="1:12" ht="17">
+    <row r="575" spans="1:12">
       <c r="A575">
         <v>2</v>
       </c>
@@ -29207,7 +29214,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="576" spans="1:12" ht="17">
+    <row r="576" spans="1:12">
       <c r="A576">
         <v>2</v>
       </c>
@@ -29242,7 +29249,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="17">
+    <row r="577" spans="1:11">
       <c r="A577">
         <v>2</v>
       </c>
@@ -29277,7 +29284,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="17">
+    <row r="578" spans="1:11">
       <c r="A578">
         <v>2</v>
       </c>
@@ -29312,7 +29319,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="34">
+    <row r="579" spans="1:11">
       <c r="A579">
         <v>2</v>
       </c>
@@ -29347,7 +29354,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="17">
+    <row r="580" spans="1:11">
       <c r="A580">
         <v>2</v>
       </c>
@@ -29382,7 +29389,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="17">
+    <row r="581" spans="1:11">
       <c r="A581">
         <v>2</v>
       </c>
@@ -29417,7 +29424,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="17">
+    <row r="582" spans="1:11">
       <c r="A582">
         <v>2</v>
       </c>
@@ -29452,7 +29459,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="17">
+    <row r="583" spans="1:11">
       <c r="A583">
         <v>2</v>
       </c>
@@ -29487,7 +29494,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="17">
+    <row r="584" spans="1:11">
       <c r="A584">
         <v>2</v>
       </c>
@@ -29522,7 +29529,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="17">
+    <row r="585" spans="1:11">
       <c r="A585">
         <v>2</v>
       </c>
@@ -29557,7 +29564,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="17">
+    <row r="586" spans="1:11">
       <c r="A586">
         <v>2</v>
       </c>
@@ -29592,7 +29599,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="17">
+    <row r="587" spans="1:11">
       <c r="A587">
         <v>2</v>
       </c>
@@ -29627,7 +29634,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="17">
+    <row r="588" spans="1:11">
       <c r="A588">
         <v>2</v>
       </c>
@@ -29662,7 +29669,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="17">
+    <row r="589" spans="1:11">
       <c r="A589">
         <v>2</v>
       </c>
@@ -29697,7 +29704,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="17">
+    <row r="590" spans="1:11">
       <c r="A590">
         <v>2</v>
       </c>
@@ -29732,7 +29739,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="17">
+    <row r="591" spans="1:11">
       <c r="A591">
         <v>2</v>
       </c>
@@ -29767,7 +29774,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="17">
+    <row r="592" spans="1:11">
       <c r="A592">
         <v>2</v>
       </c>
@@ -29802,7 +29809,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="17">
+    <row r="593" spans="1:11">
       <c r="A593">
         <v>2</v>
       </c>
@@ -29837,7 +29844,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="17">
+    <row r="594" spans="1:11">
       <c r="A594">
         <v>2</v>
       </c>
@@ -29872,7 +29879,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="17">
+    <row r="595" spans="1:11">
       <c r="A595">
         <v>2</v>
       </c>
@@ -29907,7 +29914,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="17">
+    <row r="596" spans="1:11">
       <c r="A596">
         <v>2</v>
       </c>
@@ -29942,7 +29949,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="17">
+    <row r="597" spans="1:11">
       <c r="A597">
         <v>2</v>
       </c>
@@ -29977,7 +29984,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="17">
+    <row r="598" spans="1:11">
       <c r="A598">
         <v>2</v>
       </c>
@@ -30012,7 +30019,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="17">
+    <row r="599" spans="1:11">
       <c r="A599">
         <v>2</v>
       </c>
@@ -30047,7 +30054,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="17">
+    <row r="600" spans="1:11">
       <c r="A600">
         <v>2</v>
       </c>
@@ -30082,7 +30089,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="17">
+    <row r="601" spans="1:11">
       <c r="A601">
         <v>2</v>
       </c>
@@ -30117,7 +30124,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="17">
+    <row r="602" spans="1:11">
       <c r="A602">
         <v>2</v>
       </c>
@@ -30152,7 +30159,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="17">
+    <row r="603" spans="1:11">
       <c r="A603">
         <v>2</v>
       </c>
@@ -30187,7 +30194,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="17">
+    <row r="604" spans="1:11">
       <c r="A604">
         <v>2</v>
       </c>
@@ -30222,7 +30229,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="17">
+    <row r="605" spans="1:11">
       <c r="A605">
         <v>2</v>
       </c>
@@ -30257,7 +30264,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="17">
+    <row r="606" spans="1:11">
       <c r="A606">
         <v>2</v>
       </c>
@@ -30292,7 +30299,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="17">
+    <row r="607" spans="1:11">
       <c r="A607">
         <v>2</v>
       </c>
@@ -30327,7 +30334,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="17">
+    <row r="608" spans="1:11">
       <c r="A608">
         <v>2</v>
       </c>
@@ -30362,7 +30369,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="17">
+    <row r="609" spans="1:11">
       <c r="A609">
         <v>2</v>
       </c>
@@ -30397,7 +30404,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="17">
+    <row r="610" spans="1:11">
       <c r="A610">
         <v>2</v>
       </c>
@@ -30432,7 +30439,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="17">
+    <row r="611" spans="1:11">
       <c r="A611">
         <v>2</v>
       </c>
@@ -30467,7 +30474,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="17">
+    <row r="612" spans="1:11">
       <c r="A612">
         <v>2</v>
       </c>
@@ -30502,7 +30509,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="17">
+    <row r="613" spans="1:11">
       <c r="A613">
         <v>2</v>
       </c>
@@ -30537,7 +30544,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="17">
+    <row r="614" spans="1:11">
       <c r="A614">
         <v>2</v>
       </c>
@@ -30572,7 +30579,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="17">
+    <row r="615" spans="1:11">
       <c r="A615">
         <v>2</v>
       </c>
@@ -30607,7 +30614,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="17">
+    <row r="616" spans="1:11">
       <c r="A616">
         <v>2</v>
       </c>
@@ -30642,7 +30649,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="17">
+    <row r="617" spans="1:11">
       <c r="A617">
         <v>2</v>
       </c>
@@ -30677,7 +30684,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="17">
+    <row r="618" spans="1:11">
       <c r="A618">
         <v>2</v>
       </c>
@@ -30712,7 +30719,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="17">
+    <row r="619" spans="1:11">
       <c r="A619">
         <v>2</v>
       </c>
@@ -30747,7 +30754,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="17">
+    <row r="620" spans="1:11">
       <c r="A620">
         <v>2</v>
       </c>
@@ -30782,7 +30789,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="17">
+    <row r="621" spans="1:11">
       <c r="A621">
         <v>2</v>
       </c>
@@ -30817,7 +30824,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="17">
+    <row r="622" spans="1:11">
       <c r="A622">
         <v>2</v>
       </c>
@@ -30852,7 +30859,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="17">
+    <row r="623" spans="1:11">
       <c r="A623">
         <v>2</v>
       </c>
@@ -30887,7 +30894,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="17">
+    <row r="624" spans="1:11">
       <c r="A624">
         <v>2</v>
       </c>
@@ -30922,7 +30929,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="17">
+    <row r="625" spans="1:11">
       <c r="A625">
         <v>2</v>
       </c>
@@ -30957,7 +30964,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="17">
+    <row r="626" spans="1:11">
       <c r="A626">
         <v>2</v>
       </c>
@@ -30992,7 +30999,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="17">
+    <row r="627" spans="1:11">
       <c r="A627">
         <v>2</v>
       </c>
@@ -31027,7 +31034,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="17">
+    <row r="628" spans="1:11">
       <c r="A628">
         <v>2</v>
       </c>
@@ -31062,7 +31069,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="17">
+    <row r="629" spans="1:11">
       <c r="A629">
         <v>2</v>
       </c>
@@ -31097,7 +31104,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="17">
+    <row r="630" spans="1:11">
       <c r="A630">
         <v>2</v>
       </c>
@@ -31132,7 +31139,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="17">
+    <row r="631" spans="1:11">
       <c r="A631">
         <v>2</v>
       </c>
@@ -31167,7 +31174,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="17">
+    <row r="632" spans="1:11">
       <c r="A632">
         <v>2</v>
       </c>
@@ -31202,7 +31209,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="17">
+    <row r="633" spans="1:11">
       <c r="A633">
         <v>2</v>
       </c>
@@ -31237,7 +31244,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="17">
+    <row r="634" spans="1:11">
       <c r="A634">
         <v>2</v>
       </c>
@@ -31272,7 +31279,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="17">
+    <row r="635" spans="1:11">
       <c r="A635">
         <v>2</v>
       </c>
@@ -31307,7 +31314,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="17">
+    <row r="636" spans="1:11">
       <c r="A636">
         <v>2</v>
       </c>
@@ -31342,7 +31349,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="17">
+    <row r="637" spans="1:11">
       <c r="A637">
         <v>2</v>
       </c>
@@ -31377,7 +31384,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="17">
+    <row r="638" spans="1:11">
       <c r="A638">
         <v>2</v>
       </c>
@@ -31412,7 +31419,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="17">
+    <row r="639" spans="1:11">
       <c r="A639">
         <v>2</v>
       </c>
@@ -31447,7 +31454,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="17">
+    <row r="640" spans="1:11">
       <c r="A640">
         <v>2</v>
       </c>
@@ -31482,7 +31489,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="641" spans="1:13" ht="17">
+    <row r="641" spans="1:13">
       <c r="A641">
         <v>2</v>
       </c>
@@ -31517,7 +31524,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="642" spans="1:13" ht="17">
+    <row r="642" spans="1:13">
       <c r="A642">
         <v>2</v>
       </c>
@@ -31553,7 +31560,7 @@
       </c>
       <c r="M642" s="2"/>
     </row>
-    <row r="643" spans="1:13" ht="17">
+    <row r="643" spans="1:13">
       <c r="A643">
         <v>2</v>
       </c>
@@ -31589,7 +31596,7 @@
       </c>
       <c r="M643" s="2"/>
     </row>
-    <row r="644" spans="1:13" ht="17">
+    <row r="644" spans="1:13">
       <c r="A644">
         <v>2</v>
       </c>
@@ -31624,7 +31631,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="645" spans="1:13" ht="17">
+    <row r="645" spans="1:13">
       <c r="A645">
         <v>2</v>
       </c>
@@ -31659,7 +31666,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="646" spans="1:13" ht="17">
+    <row r="646" spans="1:13">
       <c r="A646">
         <v>2</v>
       </c>
@@ -31694,7 +31701,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="647" spans="1:13" ht="17">
+    <row r="647" spans="1:13">
       <c r="A647">
         <v>2</v>
       </c>
@@ -31729,7 +31736,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="648" spans="1:13" ht="17">
+    <row r="648" spans="1:13">
       <c r="A648">
         <v>2</v>
       </c>
@@ -31764,7 +31771,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="649" spans="1:13" ht="17">
+    <row r="649" spans="1:13">
       <c r="A649">
         <v>2</v>
       </c>
@@ -31799,7 +31806,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="650" spans="1:13" ht="17">
+    <row r="650" spans="1:13">
       <c r="A650">
         <v>2</v>
       </c>
@@ -31834,7 +31841,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="651" spans="1:13" ht="17">
+    <row r="651" spans="1:13">
       <c r="A651">
         <v>2</v>
       </c>
@@ -31869,7 +31876,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="652" spans="1:13" ht="17">
+    <row r="652" spans="1:13">
       <c r="A652">
         <v>2</v>
       </c>
@@ -31904,7 +31911,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="653" spans="1:13" ht="17">
+    <row r="653" spans="1:13">
       <c r="A653">
         <v>2</v>
       </c>
@@ -31939,7 +31946,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="654" spans="1:13" ht="17">
+    <row r="654" spans="1:13">
       <c r="A654">
         <v>2</v>
       </c>
@@ -31974,7 +31981,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="655" spans="1:13" ht="17">
+    <row r="655" spans="1:13">
       <c r="A655">
         <v>2</v>
       </c>
@@ -32009,7 +32016,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="656" spans="1:13" ht="17">
+    <row r="656" spans="1:13">
       <c r="A656">
         <v>2</v>
       </c>
@@ -32044,7 +32051,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="17">
+    <row r="657" spans="1:11">
       <c r="A657">
         <v>2</v>
       </c>
@@ -32079,7 +32086,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="17">
+    <row r="658" spans="1:11">
       <c r="A658">
         <v>2</v>
       </c>
@@ -32114,7 +32121,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="17">
+    <row r="659" spans="1:11">
       <c r="A659">
         <v>2</v>
       </c>
@@ -32149,7 +32156,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="17">
+    <row r="660" spans="1:11">
       <c r="A660">
         <v>2</v>
       </c>
@@ -32184,7 +32191,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="17">
+    <row r="661" spans="1:11">
       <c r="A661">
         <v>2</v>
       </c>
@@ -32219,7 +32226,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="17">
+    <row r="662" spans="1:11">
       <c r="A662">
         <v>2</v>
       </c>
@@ -32254,7 +32261,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="17">
+    <row r="663" spans="1:11">
       <c r="A663">
         <v>2</v>
       </c>
@@ -32289,7 +32296,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="17">
+    <row r="664" spans="1:11">
       <c r="A664">
         <v>2</v>
       </c>
@@ -32324,7 +32331,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="17">
+    <row r="665" spans="1:11">
       <c r="A665">
         <v>2</v>
       </c>
@@ -32359,7 +32366,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="17">
+    <row r="666" spans="1:11">
       <c r="A666">
         <v>2</v>
       </c>
@@ -32394,7 +32401,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="17">
+    <row r="667" spans="1:11">
       <c r="A667">
         <v>2</v>
       </c>
@@ -32429,7 +32436,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="17">
+    <row r="668" spans="1:11">
       <c r="A668">
         <v>2</v>
       </c>
@@ -32464,7 +32471,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="17">
+    <row r="669" spans="1:11">
       <c r="A669">
         <v>2</v>
       </c>
@@ -32499,7 +32506,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="17">
+    <row r="670" spans="1:11">
       <c r="A670">
         <v>2</v>
       </c>
@@ -32534,7 +32541,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="17">
+    <row r="671" spans="1:11">
       <c r="A671">
         <v>2</v>
       </c>
@@ -32569,7 +32576,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="17">
+    <row r="672" spans="1:11">
       <c r="A672">
         <v>2</v>
       </c>
@@ -32604,7 +32611,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="673" spans="1:12" ht="17">
+    <row r="673" spans="1:12">
       <c r="A673">
         <v>2</v>
       </c>
@@ -32639,7 +32646,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="674" spans="1:12" ht="17">
+    <row r="674" spans="1:12">
       <c r="A674">
         <v>2</v>
       </c>
@@ -32674,7 +32681,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="675" spans="1:12" ht="17">
+    <row r="675" spans="1:12">
       <c r="A675">
         <v>2</v>
       </c>
@@ -32709,7 +32716,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="676" spans="1:12" ht="17">
+    <row r="676" spans="1:12">
       <c r="A676">
         <v>2</v>
       </c>
@@ -32744,7 +32751,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="677" spans="1:12" ht="17">
+    <row r="677" spans="1:12">
       <c r="A677">
         <v>2</v>
       </c>
@@ -32779,7 +32786,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="678" spans="1:12" ht="17">
+    <row r="678" spans="1:12">
       <c r="A678">
         <v>2</v>
       </c>
@@ -32814,7 +32821,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="679" spans="1:12" ht="17">
+    <row r="679" spans="1:12">
       <c r="A679">
         <v>2</v>
       </c>
@@ -32852,7 +32859,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="680" spans="1:12" ht="17">
+    <row r="680" spans="1:12">
       <c r="A680">
         <v>2</v>
       </c>
@@ -32887,7 +32894,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="681" spans="1:12" ht="17">
+    <row r="681" spans="1:12">
       <c r="A681">
         <v>2</v>
       </c>
@@ -32922,7 +32929,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="682" spans="1:12" ht="17">
+    <row r="682" spans="1:12">
       <c r="A682">
         <v>2</v>
       </c>
@@ -32957,7 +32964,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="683" spans="1:12" ht="17">
+    <row r="683" spans="1:12">
       <c r="A683">
         <v>2</v>
       </c>
@@ -32992,7 +32999,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="684" spans="1:12" ht="17">
+    <row r="684" spans="1:12">
       <c r="A684">
         <v>2</v>
       </c>
@@ -33027,7 +33034,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="685" spans="1:12" ht="17">
+    <row r="685" spans="1:12">
       <c r="A685">
         <v>2</v>
       </c>
@@ -33062,7 +33069,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="686" spans="1:12" ht="17">
+    <row r="686" spans="1:12">
       <c r="A686">
         <v>2</v>
       </c>
@@ -33097,7 +33104,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="687" spans="1:12" ht="17">
+    <row r="687" spans="1:12">
       <c r="A687">
         <v>2</v>
       </c>
@@ -33132,7 +33139,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="688" spans="1:12" ht="17">
+    <row r="688" spans="1:12">
       <c r="A688">
         <v>2</v>
       </c>
@@ -33167,7 +33174,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="17">
+    <row r="689" spans="1:11">
       <c r="A689">
         <v>2</v>
       </c>
@@ -33202,7 +33209,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="17">
+    <row r="690" spans="1:11">
       <c r="A690">
         <v>2</v>
       </c>
@@ -33237,7 +33244,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="17">
+    <row r="691" spans="1:11">
       <c r="A691">
         <v>2</v>
       </c>
@@ -33272,7 +33279,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="17">
+    <row r="692" spans="1:11">
       <c r="A692">
         <v>2</v>
       </c>
@@ -33307,7 +33314,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="17">
+    <row r="693" spans="1:11">
       <c r="A693">
         <v>2</v>
       </c>
@@ -33342,7 +33349,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="17">
+    <row r="694" spans="1:11">
       <c r="A694">
         <v>2</v>
       </c>
@@ -33377,7 +33384,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="17">
+    <row r="695" spans="1:11">
       <c r="A695">
         <v>2</v>
       </c>
@@ -33412,7 +33419,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="17">
+    <row r="696" spans="1:11">
       <c r="A696">
         <v>2</v>
       </c>
@@ -33447,7 +33454,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="17">
+    <row r="697" spans="1:11">
       <c r="A697">
         <v>2</v>
       </c>
@@ -33482,7 +33489,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="17">
+    <row r="698" spans="1:11">
       <c r="A698">
         <v>2</v>
       </c>
@@ -33517,7 +33524,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="17">
+    <row r="699" spans="1:11">
       <c r="A699">
         <v>2</v>
       </c>
@@ -33552,7 +33559,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="17">
+    <row r="700" spans="1:11">
       <c r="A700">
         <v>2</v>
       </c>
@@ -33587,7 +33594,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="17">
+    <row r="701" spans="1:11">
       <c r="A701">
         <v>2</v>
       </c>
@@ -33622,7 +33629,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="17">
+    <row r="702" spans="1:11">
       <c r="A702">
         <v>2</v>
       </c>
@@ -33657,7 +33664,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="17">
+    <row r="703" spans="1:11">
       <c r="A703">
         <v>2</v>
       </c>
@@ -33692,7 +33699,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="17">
+    <row r="704" spans="1:11">
       <c r="A704">
         <v>2</v>
       </c>
@@ -33727,7 +33734,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="17">
+    <row r="705" spans="1:11">
       <c r="A705">
         <v>2</v>
       </c>
@@ -33762,7 +33769,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="17">
+    <row r="706" spans="1:11">
       <c r="A706">
         <v>2</v>
       </c>
@@ -33797,7 +33804,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="17">
+    <row r="707" spans="1:11">
       <c r="A707">
         <v>2</v>
       </c>
@@ -33832,7 +33839,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="17">
+    <row r="708" spans="1:11">
       <c r="A708">
         <v>2</v>
       </c>
@@ -33867,7 +33874,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="17">
+    <row r="709" spans="1:11">
       <c r="A709">
         <v>2</v>
       </c>
@@ -33902,7 +33909,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="17">
+    <row r="710" spans="1:11">
       <c r="A710">
         <v>2</v>
       </c>
@@ -33937,7 +33944,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="17">
+    <row r="711" spans="1:11">
       <c r="A711">
         <v>2</v>
       </c>
@@ -33972,7 +33979,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="17">
+    <row r="712" spans="1:11">
       <c r="A712">
         <v>2</v>
       </c>
@@ -34007,7 +34014,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="17">
+    <row r="713" spans="1:11">
       <c r="A713">
         <v>2</v>
       </c>
@@ -34042,7 +34049,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="17">
+    <row r="714" spans="1:11">
       <c r="A714">
         <v>2</v>
       </c>
@@ -34077,7 +34084,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="17">
+    <row r="715" spans="1:11">
       <c r="A715">
         <v>2</v>
       </c>
@@ -34112,7 +34119,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="17">
+    <row r="716" spans="1:11">
       <c r="A716">
         <v>2</v>
       </c>
@@ -34147,7 +34154,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="17">
+    <row r="717" spans="1:11">
       <c r="A717">
         <v>2</v>
       </c>
@@ -34182,7 +34189,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="17">
+    <row r="718" spans="1:11">
       <c r="A718">
         <v>2</v>
       </c>
@@ -34217,7 +34224,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="17">
+    <row r="719" spans="1:11">
       <c r="A719">
         <v>2</v>
       </c>
@@ -34252,7 +34259,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="17">
+    <row r="720" spans="1:11">
       <c r="A720">
         <v>2</v>
       </c>
@@ -34287,7 +34294,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="17">
+    <row r="721" spans="1:11">
       <c r="A721">
         <v>2</v>
       </c>
@@ -34322,7 +34329,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="17">
+    <row r="722" spans="1:11">
       <c r="A722">
         <v>2</v>
       </c>
@@ -34357,7 +34364,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="17">
+    <row r="723" spans="1:11">
       <c r="A723">
         <v>2</v>
       </c>
@@ -34392,7 +34399,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="17">
+    <row r="724" spans="1:11">
       <c r="A724">
         <v>2</v>
       </c>
@@ -34427,7 +34434,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="17">
+    <row r="725" spans="1:11">
       <c r="A725">
         <v>2</v>
       </c>
@@ -34462,7 +34469,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="17">
+    <row r="726" spans="1:11">
       <c r="A726">
         <v>2</v>
       </c>
@@ -34497,7 +34504,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="17">
+    <row r="727" spans="1:11">
       <c r="A727">
         <v>2</v>
       </c>
@@ -34532,7 +34539,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="17">
+    <row r="728" spans="1:11">
       <c r="A728">
         <v>2</v>
       </c>
@@ -34567,7 +34574,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="17">
+    <row r="729" spans="1:11">
       <c r="A729">
         <v>2</v>
       </c>
@@ -34602,7 +34609,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="17">
+    <row r="730" spans="1:11">
       <c r="A730">
         <v>2</v>
       </c>
@@ -34637,7 +34644,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="17">
+    <row r="731" spans="1:11">
       <c r="A731">
         <v>2</v>
       </c>
@@ -34672,7 +34679,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="17">
+    <row r="732" spans="1:11">
       <c r="A732">
         <v>2</v>
       </c>
@@ -34707,7 +34714,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="17">
+    <row r="733" spans="1:11">
       <c r="A733">
         <v>2</v>
       </c>
@@ -34742,7 +34749,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="17">
+    <row r="734" spans="1:11">
       <c r="A734">
         <v>2</v>
       </c>
@@ -34777,7 +34784,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="17">
+    <row r="735" spans="1:11">
       <c r="A735">
         <v>2</v>
       </c>
@@ -34812,7 +34819,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="17">
+    <row r="736" spans="1:11">
       <c r="A736">
         <v>2</v>
       </c>
@@ -34847,7 +34854,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="737" spans="1:11" ht="17">
+    <row r="737" spans="1:11">
       <c r="A737">
         <v>2</v>
       </c>
@@ -34882,7 +34889,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="738" spans="1:11" ht="17">
+    <row r="738" spans="1:11">
       <c r="A738">
         <v>2</v>
       </c>
@@ -34917,7 +34924,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="17">
+    <row r="739" spans="1:11">
       <c r="A739">
         <v>2</v>
       </c>
@@ -34952,7 +34959,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="17">
+    <row r="740" spans="1:11">
       <c r="A740">
         <v>2</v>
       </c>
@@ -34987,7 +34994,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="17">
+    <row r="741" spans="1:11">
       <c r="A741">
         <v>2</v>
       </c>
@@ -35022,7 +35029,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="742" spans="1:11" ht="17">
+    <row r="742" spans="1:11">
       <c r="A742">
         <v>2</v>
       </c>
@@ -35057,7 +35064,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="743" spans="1:11" ht="17">
+    <row r="743" spans="1:11">
       <c r="A743">
         <v>2</v>
       </c>
@@ -35092,7 +35099,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="744" spans="1:11" ht="17">
+    <row r="744" spans="1:11">
       <c r="A744">
         <v>2</v>
       </c>
@@ -35127,7 +35134,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="745" spans="1:11" ht="17">
+    <row r="745" spans="1:11">
       <c r="A745">
         <v>2</v>
       </c>
@@ -35162,7 +35169,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="17">
+    <row r="746" spans="1:11">
       <c r="A746">
         <v>2</v>
       </c>
@@ -35197,7 +35204,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="17">
+    <row r="747" spans="1:11">
       <c r="A747">
         <v>2</v>
       </c>
@@ -35232,7 +35239,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="748" spans="1:11" ht="17">
+    <row r="748" spans="1:11">
       <c r="A748">
         <v>2</v>
       </c>
@@ -35267,7 +35274,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="749" spans="1:11" ht="17">
+    <row r="749" spans="1:11">
       <c r="A749">
         <v>2</v>
       </c>
@@ -35302,7 +35309,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="750" spans="1:11" ht="17">
+    <row r="750" spans="1:11">
       <c r="A750">
         <v>2</v>
       </c>
@@ -35337,7 +35344,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="17">
+    <row r="751" spans="1:11">
       <c r="A751">
         <v>2</v>
       </c>
@@ -35372,7 +35379,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="17">
+    <row r="752" spans="1:11">
       <c r="A752">
         <v>2</v>
       </c>
@@ -35407,7 +35414,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="753" spans="1:12" ht="17">
+    <row r="753" spans="1:12">
       <c r="A753">
         <v>2</v>
       </c>
@@ -35442,7 +35449,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="754" spans="1:12" ht="17">
+    <row r="754" spans="1:12">
       <c r="A754">
         <v>2</v>
       </c>
@@ -35477,7 +35484,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="755" spans="1:12" ht="17">
+    <row r="755" spans="1:12">
       <c r="A755">
         <v>2</v>
       </c>
@@ -35515,7 +35522,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="756" spans="1:12" ht="17">
+    <row r="756" spans="1:12">
       <c r="A756">
         <v>2</v>
       </c>
@@ -35550,7 +35557,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="757" spans="1:12" ht="17">
+    <row r="757" spans="1:12">
       <c r="A757">
         <v>2</v>
       </c>
@@ -35585,7 +35592,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="758" spans="1:12" ht="17">
+    <row r="758" spans="1:12">
       <c r="A758">
         <v>2</v>
       </c>
@@ -35620,7 +35627,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="759" spans="1:12" ht="17">
+    <row r="759" spans="1:12">
       <c r="A759">
         <v>2</v>
       </c>
@@ -35655,7 +35662,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="760" spans="1:12" ht="17">
+    <row r="760" spans="1:12">
       <c r="A760">
         <v>2</v>
       </c>
@@ -35690,7 +35697,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="761" spans="1:12" ht="17">
+    <row r="761" spans="1:12">
       <c r="A761">
         <v>2</v>
       </c>
@@ -35725,7 +35732,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="762" spans="1:12" ht="17">
+    <row r="762" spans="1:12">
       <c r="A762">
         <v>2</v>
       </c>
@@ -35760,7 +35767,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="763" spans="1:12" ht="17">
+    <row r="763" spans="1:12">
       <c r="A763">
         <v>2</v>
       </c>
@@ -35795,7 +35802,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="764" spans="1:12" ht="17">
+    <row r="764" spans="1:12">
       <c r="A764">
         <v>2</v>
       </c>
@@ -35830,7 +35837,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="765" spans="1:12" ht="17">
+    <row r="765" spans="1:12">
       <c r="A765">
         <v>2</v>
       </c>
@@ -35865,7 +35872,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="766" spans="1:12" ht="17">
+    <row r="766" spans="1:12">
       <c r="A766">
         <v>2</v>
       </c>
@@ -35900,7 +35907,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="767" spans="1:12" ht="17">
+    <row r="767" spans="1:12">
       <c r="A767">
         <v>2</v>
       </c>
@@ -35935,7 +35942,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="768" spans="1:12" ht="17">
+    <row r="768" spans="1:12">
       <c r="A768">
         <v>2</v>
       </c>
@@ -35970,7 +35977,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="17">
+    <row r="769" spans="1:11">
       <c r="A769">
         <v>2</v>
       </c>
@@ -36005,7 +36012,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="770" spans="1:11" ht="17">
+    <row r="770" spans="1:11">
       <c r="A770">
         <v>2</v>
       </c>
@@ -36040,7 +36047,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="771" spans="1:11" ht="17">
+    <row r="771" spans="1:11">
       <c r="A771">
         <v>2</v>
       </c>
@@ -36075,7 +36082,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="772" spans="1:11" ht="17">
+    <row r="772" spans="1:11">
       <c r="A772">
         <v>2</v>
       </c>
@@ -36110,7 +36117,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="773" spans="1:11" ht="17">
+    <row r="773" spans="1:11">
       <c r="A773">
         <v>2</v>
       </c>
@@ -36145,7 +36152,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="17">
+    <row r="774" spans="1:11">
       <c r="A774">
         <v>2</v>
       </c>
@@ -36180,7 +36187,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="775" spans="1:11" ht="17">
+    <row r="775" spans="1:11">
       <c r="A775">
         <v>2</v>
       </c>
@@ -36215,7 +36222,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="17">
+    <row r="776" spans="1:11">
       <c r="A776">
         <v>2</v>
       </c>
@@ -36250,7 +36257,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="17">
+    <row r="777" spans="1:11">
       <c r="A777">
         <v>2</v>
       </c>
@@ -36285,7 +36292,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="17">
+    <row r="778" spans="1:11">
       <c r="A778">
         <v>2</v>
       </c>
@@ -36320,7 +36327,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="17">
+    <row r="779" spans="1:11">
       <c r="A779">
         <v>2</v>
       </c>
@@ -36355,7 +36362,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="17">
+    <row r="780" spans="1:11">
       <c r="A780">
         <v>2</v>
       </c>
@@ -36390,7 +36397,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="17">
+    <row r="781" spans="1:11">
       <c r="A781">
         <v>2</v>
       </c>
@@ -36425,7 +36432,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="17">
+    <row r="782" spans="1:11">
       <c r="A782">
         <v>2</v>
       </c>
@@ -36460,7 +36467,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="17">
+    <row r="783" spans="1:11">
       <c r="A783">
         <v>2</v>
       </c>
@@ -36495,7 +36502,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="17">
+    <row r="784" spans="1:11">
       <c r="A784">
         <v>2</v>
       </c>
@@ -36530,7 +36537,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="17">
+    <row r="785" spans="1:11">
       <c r="A785">
         <v>2</v>
       </c>
@@ -36565,7 +36572,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="17">
+    <row r="786" spans="1:11">
       <c r="A786">
         <v>2</v>
       </c>
@@ -36600,7 +36607,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="17">
+    <row r="787" spans="1:11">
       <c r="A787">
         <v>2</v>
       </c>
@@ -36635,7 +36642,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="17">
+    <row r="788" spans="1:11">
       <c r="A788">
         <v>2</v>
       </c>
@@ -36670,7 +36677,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="17">
+    <row r="789" spans="1:11">
       <c r="A789">
         <v>2</v>
       </c>
@@ -36705,7 +36712,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="17">
+    <row r="790" spans="1:11">
       <c r="A790">
         <v>2</v>
       </c>
@@ -36740,7 +36747,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="17">
+    <row r="791" spans="1:11">
       <c r="A791">
         <v>2</v>
       </c>
@@ -36775,7 +36782,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="17">
+    <row r="792" spans="1:11">
       <c r="A792">
         <v>2</v>
       </c>
@@ -36810,7 +36817,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="17">
+    <row r="793" spans="1:11">
       <c r="A793">
         <v>2</v>
       </c>
@@ -36845,7 +36852,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="17">
+    <row r="794" spans="1:11">
       <c r="A794">
         <v>2</v>
       </c>
@@ -36880,7 +36887,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="17">
+    <row r="795" spans="1:11">
       <c r="A795">
         <v>2</v>
       </c>
@@ -36915,7 +36922,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="17">
+    <row r="796" spans="1:11">
       <c r="A796">
         <v>2</v>
       </c>
@@ -36950,7 +36957,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="17">
+    <row r="797" spans="1:11">
       <c r="A797">
         <v>2</v>
       </c>
@@ -36985,7 +36992,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="17">
+    <row r="798" spans="1:11">
       <c r="A798">
         <v>2</v>
       </c>
@@ -37020,7 +37027,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="17">
+    <row r="799" spans="1:11">
       <c r="A799">
         <v>2</v>
       </c>
@@ -37055,7 +37062,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="17">
+    <row r="800" spans="1:11">
       <c r="A800">
         <v>2</v>
       </c>
@@ -37090,7 +37097,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="801" spans="1:12" ht="17">
+    <row r="801" spans="1:12">
       <c r="A801">
         <v>2</v>
       </c>
@@ -37125,7 +37132,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="802" spans="1:12" ht="17">
+    <row r="802" spans="1:12">
       <c r="A802">
         <v>2</v>
       </c>
@@ -37160,7 +37167,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="803" spans="1:12" ht="17">
+    <row r="803" spans="1:12">
       <c r="A803">
         <v>2</v>
       </c>
@@ -37195,7 +37202,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="804" spans="1:12" ht="17">
+    <row r="804" spans="1:12">
       <c r="A804">
         <v>2</v>
       </c>
@@ -37230,7 +37237,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="805" spans="1:12" ht="17">
+    <row r="805" spans="1:12">
       <c r="A805">
         <v>2</v>
       </c>
@@ -37265,7 +37272,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="806" spans="1:12" ht="17">
+    <row r="806" spans="1:12">
       <c r="A806">
         <v>2</v>
       </c>
@@ -37300,7 +37307,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="807" spans="1:12" ht="17">
+    <row r="807" spans="1:12">
       <c r="A807">
         <v>2</v>
       </c>
@@ -37338,7 +37345,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="808" spans="1:12" ht="17">
+    <row r="808" spans="1:12">
       <c r="A808">
         <v>2</v>
       </c>
@@ -37376,7 +37383,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="809" spans="1:12" ht="17">
+    <row r="809" spans="1:12">
       <c r="A809">
         <v>2</v>
       </c>
@@ -37411,7 +37418,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="810" spans="1:12" ht="17">
+    <row r="810" spans="1:12">
       <c r="A810">
         <v>2</v>
       </c>
@@ -37446,7 +37453,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="811" spans="1:12" ht="17">
+    <row r="811" spans="1:12">
       <c r="A811">
         <v>2</v>
       </c>
@@ -37481,7 +37488,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="812" spans="1:12" ht="17">
+    <row r="812" spans="1:12">
       <c r="A812">
         <v>2</v>
       </c>
@@ -37516,7 +37523,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="813" spans="1:12" ht="17">
+    <row r="813" spans="1:12">
       <c r="A813">
         <v>2</v>
       </c>
@@ -37551,7 +37558,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="814" spans="1:12" ht="17">
+    <row r="814" spans="1:12">
       <c r="A814">
         <v>2</v>
       </c>
@@ -37586,7 +37593,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="815" spans="1:12" ht="17">
+    <row r="815" spans="1:12">
       <c r="A815">
         <v>2</v>
       </c>
@@ -37621,7 +37628,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="816" spans="1:12" ht="17">
+    <row r="816" spans="1:12">
       <c r="A816">
         <v>2</v>
       </c>
@@ -37656,7 +37663,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="817" spans="1:12" ht="17">
+    <row r="817" spans="1:12">
       <c r="A817">
         <v>2</v>
       </c>
@@ -37691,7 +37698,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="818" spans="1:12" ht="17">
+    <row r="818" spans="1:12">
       <c r="A818">
         <v>2</v>
       </c>
@@ -37726,7 +37733,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="819" spans="1:12" ht="17">
+    <row r="819" spans="1:12">
       <c r="A819">
         <v>2</v>
       </c>
@@ -37761,7 +37768,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="820" spans="1:12" ht="17">
+    <row r="820" spans="1:12">
       <c r="A820">
         <v>2</v>
       </c>
@@ -37796,7 +37803,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="821" spans="1:12" ht="17">
+    <row r="821" spans="1:12">
       <c r="A821">
         <v>2</v>
       </c>
@@ -37831,7 +37838,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="822" spans="1:12" ht="17">
+    <row r="822" spans="1:12">
       <c r="A822">
         <v>2</v>
       </c>
@@ -37866,7 +37873,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="823" spans="1:12" ht="17">
+    <row r="823" spans="1:12">
       <c r="A823">
         <v>2</v>
       </c>
@@ -37901,7 +37908,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="824" spans="1:12" ht="17">
+    <row r="824" spans="1:12">
       <c r="A824">
         <v>2</v>
       </c>
@@ -37939,7 +37946,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="825" spans="1:12" ht="17">
+    <row r="825" spans="1:12">
       <c r="A825">
         <v>2</v>
       </c>
@@ -37974,7 +37981,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="826" spans="1:12" ht="17">
+    <row r="826" spans="1:12">
       <c r="A826">
         <v>2</v>
       </c>
@@ -38009,7 +38016,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="827" spans="1:12" ht="17">
+    <row r="827" spans="1:12">
       <c r="A827">
         <v>2</v>
       </c>
@@ -38044,7 +38051,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="828" spans="1:12" ht="17">
+    <row r="828" spans="1:12">
       <c r="A828">
         <v>2</v>
       </c>
@@ -38079,7 +38086,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="829" spans="1:12" ht="17">
+    <row r="829" spans="1:12">
       <c r="A829">
         <v>2</v>
       </c>
@@ -38114,7 +38121,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="830" spans="1:12" ht="17">
+    <row r="830" spans="1:12">
       <c r="A830">
         <v>2</v>
       </c>
@@ -38149,7 +38156,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="831" spans="1:12" ht="17">
+    <row r="831" spans="1:12">
       <c r="A831">
         <v>2</v>
       </c>
@@ -38184,7 +38191,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="832" spans="1:12" ht="17">
+    <row r="832" spans="1:12">
       <c r="A832">
         <v>2</v>
       </c>
@@ -38219,7 +38226,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="17">
+    <row r="833" spans="1:11">
       <c r="A833">
         <v>2</v>
       </c>
@@ -38254,7 +38261,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="17">
+    <row r="834" spans="1:11">
       <c r="A834">
         <v>2</v>
       </c>
@@ -38289,7 +38296,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="17">
+    <row r="835" spans="1:11">
       <c r="A835">
         <v>2</v>
       </c>
@@ -38324,7 +38331,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="17">
+    <row r="836" spans="1:11">
       <c r="A836">
         <v>2</v>
       </c>
@@ -38359,7 +38366,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="17">
+    <row r="837" spans="1:11">
       <c r="A837">
         <v>2</v>
       </c>
@@ -38394,7 +38401,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="17">
+    <row r="838" spans="1:11">
       <c r="A838">
         <v>2</v>
       </c>
@@ -38429,7 +38436,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="17">
+    <row r="839" spans="1:11">
       <c r="A839">
         <v>2</v>
       </c>
@@ -38464,7 +38471,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="17">
+    <row r="840" spans="1:11">
       <c r="A840">
         <v>2</v>
       </c>
@@ -38499,7 +38506,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="841" spans="1:11" ht="17">
+    <row r="841" spans="1:11">
       <c r="A841">
         <v>2</v>
       </c>
@@ -38534,7 +38541,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="842" spans="1:11" ht="17">
+    <row r="842" spans="1:11">
       <c r="A842">
         <v>2</v>
       </c>
@@ -38569,7 +38576,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="843" spans="1:11" ht="17">
+    <row r="843" spans="1:11">
       <c r="A843">
         <v>2</v>
       </c>
@@ -38604,7 +38611,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="17">
+    <row r="844" spans="1:11">
       <c r="A844">
         <v>2</v>
       </c>
@@ -38639,7 +38646,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="17">
+    <row r="845" spans="1:11">
       <c r="A845">
         <v>2</v>
       </c>
@@ -38674,7 +38681,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="846" spans="1:11" ht="17">
+    <row r="846" spans="1:11">
       <c r="A846">
         <v>2</v>
       </c>
@@ -38709,7 +38716,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="847" spans="1:11" ht="17">
+    <row r="847" spans="1:11">
       <c r="A847">
         <v>2</v>
       </c>
@@ -38744,7 +38751,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="848" spans="1:11" ht="17">
+    <row r="848" spans="1:11">
       <c r="A848">
         <v>2</v>
       </c>
@@ -38779,7 +38786,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="849" spans="1:12" ht="17">
+    <row r="849" spans="1:12">
       <c r="A849">
         <v>2</v>
       </c>
@@ -38814,7 +38821,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="850" spans="1:12" ht="17">
+    <row r="850" spans="1:12">
       <c r="A850">
         <v>2</v>
       </c>
@@ -38849,7 +38856,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="851" spans="1:12" ht="17">
+    <row r="851" spans="1:12">
       <c r="A851">
         <v>2</v>
       </c>
@@ -38884,7 +38891,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="852" spans="1:12" ht="17">
+    <row r="852" spans="1:12">
       <c r="A852">
         <v>2</v>
       </c>
@@ -38919,7 +38926,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="853" spans="1:12" ht="17">
+    <row r="853" spans="1:12">
       <c r="A853">
         <v>2</v>
       </c>
@@ -38954,7 +38961,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="854" spans="1:12" ht="17">
+    <row r="854" spans="1:12">
       <c r="A854">
         <v>2</v>
       </c>
@@ -38989,7 +38996,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="855" spans="1:12" ht="17">
+    <row r="855" spans="1:12">
       <c r="A855">
         <v>2</v>
       </c>
@@ -39024,7 +39031,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="856" spans="1:12" ht="17">
+    <row r="856" spans="1:12">
       <c r="A856">
         <v>2</v>
       </c>
@@ -39059,7 +39066,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="857" spans="1:12" ht="17">
+    <row r="857" spans="1:12">
       <c r="A857">
         <v>2</v>
       </c>
@@ -39094,7 +39101,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="858" spans="1:12" ht="17">
+    <row r="858" spans="1:12">
       <c r="A858">
         <v>2</v>
       </c>
@@ -39129,7 +39136,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="859" spans="1:12" ht="17">
+    <row r="859" spans="1:12">
       <c r="A859">
         <v>2</v>
       </c>
@@ -39164,7 +39171,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="860" spans="1:12" ht="17">
+    <row r="860" spans="1:12">
       <c r="A860">
         <v>2</v>
       </c>
@@ -39202,7 +39209,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="861" spans="1:12" ht="17">
+    <row r="861" spans="1:12">
       <c r="A861">
         <v>2</v>
       </c>
@@ -39237,7 +39244,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="862" spans="1:12" ht="17">
+    <row r="862" spans="1:12">
       <c r="A862">
         <v>2</v>
       </c>
@@ -39272,7 +39279,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="863" spans="1:12" ht="17">
+    <row r="863" spans="1:12">
       <c r="A863">
         <v>2</v>
       </c>
@@ -39307,7 +39314,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="864" spans="1:12" ht="17">
+    <row r="864" spans="1:12">
       <c r="A864">
         <v>2</v>
       </c>
@@ -39342,7 +39349,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="17">
+    <row r="865" spans="1:11">
       <c r="A865">
         <v>2</v>
       </c>
@@ -39377,7 +39384,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="17">
+    <row r="866" spans="1:11">
       <c r="A866">
         <v>2</v>
       </c>
@@ -39412,7 +39419,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="17">
+    <row r="867" spans="1:11">
       <c r="A867">
         <v>2</v>
       </c>
@@ -39447,7 +39454,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="17">
+    <row r="868" spans="1:11">
       <c r="A868">
         <v>2</v>
       </c>
@@ -39482,7 +39489,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="17">
+    <row r="869" spans="1:11">
       <c r="A869">
         <v>2</v>
       </c>
@@ -39517,7 +39524,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="17">
+    <row r="870" spans="1:11">
       <c r="A870">
         <v>2</v>
       </c>
@@ -39552,7 +39559,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="17">
+    <row r="871" spans="1:11">
       <c r="A871">
         <v>2</v>
       </c>
@@ -39587,7 +39594,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="17">
+    <row r="872" spans="1:11">
       <c r="A872">
         <v>2</v>
       </c>
@@ -39622,7 +39629,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="17">
+    <row r="873" spans="1:11">
       <c r="A873">
         <v>2</v>
       </c>
@@ -39657,7 +39664,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="17">
+    <row r="874" spans="1:11">
       <c r="A874">
         <v>2</v>
       </c>
@@ -39697,7 +39704,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -39709,9 +39716,9 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="16384" width="10.875" style="17"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
